--- a/InputData/elec/CSC/Capacity Supply Curve.xlsx
+++ b/InputData/elec/CSC/Capacity Supply Curve.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\OR\elec\CSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4D8136F-2509-463D-9228-64D929BA84C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C8CA096-C71B-4782-9C4A-3A4DE38F7FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1970" yWindow="2020" windowWidth="14400" windowHeight="7350" firstSheet="2" activeTab="3" xr2:uid="{F87DB1D1-DC21-4EA7-B1DF-998EE56837F8}"/>
+    <workbookView xWindow="150" yWindow="145" windowWidth="5920" windowHeight="5620" firstSheet="3" activeTab="3" xr2:uid="{F87DB1D1-DC21-4EA7-B1DF-998EE56837F8}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -209,9 +209,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -249,7 +249,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -355,7 +355,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -497,7 +497,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -511,9 +511,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -521,20 +521,20 @@
         <v>35</v>
       </c>
       <c r="C1" s="2">
-        <v>45330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -563,12 +563,12 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -615,7 +615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -678,17 +678,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -708,16 +708,16 @@
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:AE7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -812,7 +812,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -907,7 +907,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1287,197 +1287,197 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="C7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="D7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="E7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="F7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="H7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="I7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="J7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="K7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="L7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="M7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="N7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="O7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="P7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="R7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="S7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="T7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="U7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="V7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="W7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="X7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="Y7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="Z7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AA7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AB7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AC7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AD7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AE7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="C8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="D8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="E8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="F8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="H8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="I8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="J8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="K8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="L8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="M8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="N8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="O8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="P8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="Q8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="S8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="T8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="U8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="V8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="W8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="X8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="Y8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="Z8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AA8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AB8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AC8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AD8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AE8">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>

--- a/InputData/elec/CSC/Capacity Supply Curve.xlsx
+++ b/InputData/elec/CSC/Capacity Supply Curve.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\OR\elec\CSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C8CA096-C71B-4782-9C4A-3A4DE38F7FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8729B025-0CA5-4E27-BA67-46D1ACE09D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="145" windowWidth="5920" windowHeight="5620" firstSheet="3" activeTab="3" xr2:uid="{F87DB1D1-DC21-4EA7-B1DF-998EE56837F8}"/>
+    <workbookView xWindow="3120" yWindow="1065" windowWidth="18465" windowHeight="16935" firstSheet="1" activeTab="3" xr2:uid="{F87DB1D1-DC21-4EA7-B1DF-998EE56837F8}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">Source: </t>
   </si>
@@ -143,6 +143,18 @@
     <t>CSC Capacity Supply Curve Share of Cost Effective Capacity Built in a Single Year</t>
   </si>
   <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Supply Curve Parameters</t>
+  </si>
+  <si>
+    <t>Max share of existing capacity buildable</t>
+  </si>
+  <si>
     <t>Oregon</t>
   </si>
 </sst>
@@ -206,6 +218,1961 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Supply Curve Function</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CSC-CSCCCMvSoECBtY'!$B$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CSC-CSCCCMvSoECBtY'!$B$1:$N$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2570206462314721E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16075636876581723</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23105857863000479</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29139147267395504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3411308951190849</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38079707797788254</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41160032279294168</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.43503083087133598</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45257412682243336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.46555480433378893</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.47507557335288597</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48201379003790845</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-908C-4D72-A67B-057BE1973861}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="589529087"/>
+        <c:axId val="589529567"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="589529087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="589529567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="589529567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="589529087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CSC-CSCCCMvSoECBtY'!$B$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CSC-CSCCCMvSoECBtY'!$B$1:$N$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2570206462314721E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16075636876581723</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23105857863000479</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29139147267395504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3411308951190849</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38079707797788254</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41160032279294168</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.43503083087133598</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45257412682243336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.46555480433378893</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.47507557335288597</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48201379003790845</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D9CD-43DB-BDE0-8A392742F499}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1627802751"/>
+        <c:axId val="1627803711"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1627802751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1627803711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1627803711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1627802751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C8AEA8B-FF98-4BE8-BCDC-8A0B95A3B297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19E926C4-5B99-77EC-1DCF-F92850905973}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -505,23 +2472,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3D2DEE-686E-48A0-AC3D-0F54DEA5D0EC}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="88.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2">
-        <v>45369</v>
+        <v>45372</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -547,8 +2517,38 @@
         <v>2</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -560,7 +2560,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B1" sqref="B1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,43 +2576,56 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>0.25</v>
+        <f>2*(1/(1+EXP(-(C2-1)/(About!$B$11-1)*About!$B$13))-0.5)*About!$B$12</f>
+        <v>8.2570206462314721E-2</v>
       </c>
       <c r="D1">
+        <f>2*(1/(1+EXP(-(D2-1)/(About!$B$11-1)*About!$B$13))-0.5)*About!$B$12</f>
+        <v>0.16075636876581723</v>
+      </c>
+      <c r="E1">
+        <f>2*(1/(1+EXP(-(E2-1)/(About!$B$11-1)*About!$B$13))-0.5)*About!$B$12</f>
+        <v>0.23105857863000479</v>
+      </c>
+      <c r="F1">
+        <f>2*(1/(1+EXP(-(F2-1)/(About!$B$11-1)*About!$B$13))-0.5)*About!$B$12</f>
+        <v>0.29139147267395504</v>
+      </c>
+      <c r="G1">
+        <f>2*(1/(1+EXP(-(G2-1)/(About!$B$11-1)*About!$B$13))-0.5)*About!$B$12</f>
+        <v>0.3411308951190849</v>
+      </c>
+      <c r="H1">
+        <f>2*(1/(1+EXP(-(H2-1)/(About!$B$11-1)*About!$B$13))-0.5)*About!$B$12</f>
+        <v>0.38079707797788254</v>
+      </c>
+      <c r="I1">
+        <f>2*(1/(1+EXP(-(I2-1)/(About!$B$11-1)*About!$B$13))-0.5)*About!$B$12</f>
+        <v>0.41160032279294168</v>
+      </c>
+      <c r="J1">
+        <f>2*(1/(1+EXP(-(J2-1)/(About!$B$11-1)*About!$B$13))-0.5)*About!$B$12</f>
+        <v>0.43503083087133598</v>
+      </c>
+      <c r="K1">
+        <f>2*(1/(1+EXP(-(K2-1)/(About!$B$11-1)*About!$B$13))-0.5)*About!$B$12</f>
+        <v>0.45257412682243336</v>
+      </c>
+      <c r="L1">
+        <f>2*(1/(1+EXP(-(L2-1)/(About!$B$11-1)*About!$B$13))-0.5)*About!$B$12</f>
+        <v>0.46555480433378893</v>
+      </c>
+      <c r="M1">
+        <f>2*(1/(1+EXP(-(M2-1)/(About!$B$11-1)*About!$B$13))-0.5)*About!$B$12</f>
+        <v>0.47507557335288597</v>
+      </c>
+      <c r="N1">
+        <f>2*(1/(1+EXP(-(N2-1)/(About!$B$11-1)*About!$B$13))-0.5)*About!$B$12</f>
+        <v>0.48201379003790845</v>
+      </c>
+      <c r="O1">
+        <f>About!$B$12</f>
         <v>0.5</v>
-      </c>
-      <c r="E1">
-        <v>0.75</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-      <c r="G1">
-        <v>1.25</v>
-      </c>
-      <c r="H1">
-        <v>1.5</v>
-      </c>
-      <c r="I1">
-        <v>1.75</v>
-      </c>
-      <c r="J1">
-        <v>2</v>
-      </c>
-      <c r="K1">
-        <v>2.25</v>
-      </c>
-      <c r="L1">
-        <v>2.5</v>
-      </c>
-      <c r="M1">
-        <v>2.75</v>
-      </c>
-      <c r="N1">
-        <v>3</v>
-      </c>
-      <c r="O1">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -623,40 +2636,40 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>1.05</v>
+      </c>
+      <c r="D2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F2">
+        <v>1.2</v>
+      </c>
+      <c r="G2">
+        <v>1.25</v>
+      </c>
+      <c r="H2">
         <v>1.3</v>
       </c>
-      <c r="E2">
+      <c r="I2">
+        <v>1.35</v>
+      </c>
+      <c r="J2">
+        <v>1.4</v>
+      </c>
+      <c r="K2">
+        <v>1.45</v>
+      </c>
+      <c r="L2">
+        <v>1.5</v>
+      </c>
+      <c r="M2">
+        <v>1.55</v>
+      </c>
+      <c r="N2">
         <v>1.6</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>2.5</v>
-      </c>
-      <c r="H2">
-        <v>3.1</v>
-      </c>
-      <c r="I2">
-        <v>3.8</v>
-      </c>
-      <c r="J2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="K2">
-        <v>5.5</v>
-      </c>
-      <c r="L2">
-        <v>6.5</v>
-      </c>
-      <c r="M2">
-        <v>7.6</v>
-      </c>
-      <c r="N2">
-        <v>8.8000000000000007</v>
       </c>
       <c r="O2">
         <v>1000</v>
@@ -664,6 +2677,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -709,7 +2723,7 @@
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,94 +2831,94 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -912,94 +2926,94 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Z3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AD3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -1007,94 +3021,94 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -1102,94 +3116,94 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -1197,94 +3211,94 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -1292,94 +3306,94 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -1387,94 +3401,94 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -1482,94 +3496,94 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
@@ -1577,94 +3591,94 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -1672,94 +3686,94 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="U11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="V11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -1767,94 +3781,94 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -1862,94 +3876,94 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -1957,94 +3971,94 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -2052,94 +4066,94 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -2147,94 +4161,94 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -2242,94 +4256,94 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
@@ -2337,94 +4351,94 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="R18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="S18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="T18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="U18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="W18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="X18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Y18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AA18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AB18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AC18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AD18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AE18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -2432,94 +4446,94 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="W19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="X19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Y19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Z19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AA19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AB19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AC19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AD19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AE19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
@@ -2527,94 +4541,94 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="R20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="U20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="X20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Y20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Z20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AA20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AB20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AD20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AE20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -2622,94 +4636,94 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AD21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
@@ -2717,94 +4731,94 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
@@ -2812,94 +4826,94 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="R23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="S23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="T23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="U23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="V23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="W23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="X23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Y23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Z23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AB23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AC23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AD23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AE23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
@@ -2907,94 +4921,94 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="R24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="S24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="U24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="W24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="X24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Y24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Z24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AA24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AB24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AC24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AD24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AE24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -3002,94 +5016,94 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="R25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="S25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="T25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="U25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="V25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="W25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="X25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Y25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Z25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AA25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AB25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AC25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AD25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AE25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/CSC/Capacity Supply Curve.xlsx
+++ b/InputData/elec/CSC/Capacity Supply Curve.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\OR\elec\CSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8729B025-0CA5-4E27-BA67-46D1ACE09D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{965E3E82-4535-49DB-A0BA-BF929A10A15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1065" windowWidth="18465" windowHeight="16935" firstSheet="1" activeTab="3" xr2:uid="{F87DB1D1-DC21-4EA7-B1DF-998EE56837F8}"/>
+    <workbookView xWindow="2060" yWindow="2060" windowWidth="14400" windowHeight="7290" firstSheet="2" activeTab="3" xr2:uid="{F87DB1D1-DC21-4EA7-B1DF-998EE56837F8}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2478,12 +2478,12 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="88.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -2491,20 +2491,20 @@
         <v>39</v>
       </c>
       <c r="C1" s="2">
-        <v>45372</v>
+        <v>45377</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2512,17 +2512,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -2563,12 +2563,12 @@
       <selection activeCell="B1" sqref="B1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2692,17 +2692,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2722,16 +2722,16 @@
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AE25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>30</v>
       </c>

--- a/InputData/elec/CSC/Capacity Supply Curve.xlsx
+++ b/InputData/elec/CSC/Capacity Supply Curve.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\OR\elec\CSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{965E3E82-4535-49DB-A0BA-BF929A10A15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A823744-E940-433B-844F-781EE4024D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="2060" windowWidth="14400" windowHeight="7290" firstSheet="2" activeTab="3" xr2:uid="{F87DB1D1-DC21-4EA7-B1DF-998EE56837F8}"/>
+    <workbookView xWindow="1560" yWindow="1515" windowWidth="15855" windowHeight="16485" firstSheet="2" activeTab="3" xr2:uid="{F87DB1D1-DC21-4EA7-B1DF-998EE56837F8}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2475,15 +2475,15 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -2491,20 +2491,20 @@
         <v>39</v>
       </c>
       <c r="C1" s="2">
-        <v>45377</v>
+        <v>45387</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2512,17 +2512,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -2563,12 +2563,12 @@
       <selection activeCell="B1" sqref="B1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2692,17 +2692,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2722,16 +2722,16 @@
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AE25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>

--- a/InputData/elec/CSC/Capacity Supply Curve.xlsx
+++ b/InputData/elec/CSC/Capacity Supply Curve.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\OR\elec\CSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A823744-E940-433B-844F-781EE4024D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B45C70E-EF34-438B-88C8-B3156CA3F541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1515" windowWidth="15855" windowHeight="16485" firstSheet="2" activeTab="3" xr2:uid="{F87DB1D1-DC21-4EA7-B1DF-998EE56837F8}"/>
+    <workbookView xWindow="1950" yWindow="720" windowWidth="17025" windowHeight="17280" firstSheet="2" activeTab="3" xr2:uid="{F87DB1D1-DC21-4EA7-B1DF-998EE56837F8}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="CSC-CSCCCMvSoECBtY" sheetId="2" r:id="rId2"/>
     <sheet name="CSC-CSCMBCfPTwNEC" sheetId="3" r:id="rId3"/>
     <sheet name="CSC-CSCSoCECBiaSY" sheetId="4" r:id="rId4"/>
+    <sheet name="CSC-CSCSoCEHCBiaSY" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t xml:space="preserve">Source: </t>
   </si>
@@ -153,6 +154,9 @@
   </si>
   <si>
     <t>Max share of existing capacity buildable</t>
+  </si>
+  <si>
+    <t>CSC Capacity Supply Curve Share of Cost Effective Hybrid Capacity Built in a Single Year</t>
   </si>
   <si>
     <t>Oregon</t>
@@ -2097,13 +2101,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4572000</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2472,10 +2476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3D2DEE-686E-48A0-AC3D-0F54DEA5D0EC}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2488,10 +2492,10 @@
         <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2">
-        <v>45387</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2504,45 +2508,50 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11">
-        <v>1.45</v>
+      <c r="A11" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B12">
-        <v>0.5</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>3</v>
       </c>
     </row>
@@ -2560,12 +2569,12 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:N2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -2576,55 +2585,55 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <f>2*(1/(1+EXP(-(C2-1)/(About!$B$11-1)*About!$B$13))-0.5)*About!$B$12</f>
+        <f>2*(1/(1+EXP(-(C2-1)/(About!$B$12-1)*About!$B$14))-0.5)*About!$B$13</f>
         <v>8.2570206462314721E-2</v>
       </c>
       <c r="D1">
-        <f>2*(1/(1+EXP(-(D2-1)/(About!$B$11-1)*About!$B$13))-0.5)*About!$B$12</f>
+        <f>2*(1/(1+EXP(-(D2-1)/(About!$B$12-1)*About!$B$14))-0.5)*About!$B$13</f>
         <v>0.16075636876581723</v>
       </c>
       <c r="E1">
-        <f>2*(1/(1+EXP(-(E2-1)/(About!$B$11-1)*About!$B$13))-0.5)*About!$B$12</f>
+        <f>2*(1/(1+EXP(-(E2-1)/(About!$B$12-1)*About!$B$14))-0.5)*About!$B$13</f>
         <v>0.23105857863000479</v>
       </c>
       <c r="F1">
-        <f>2*(1/(1+EXP(-(F2-1)/(About!$B$11-1)*About!$B$13))-0.5)*About!$B$12</f>
+        <f>2*(1/(1+EXP(-(F2-1)/(About!$B$12-1)*About!$B$14))-0.5)*About!$B$13</f>
         <v>0.29139147267395504</v>
       </c>
       <c r="G1">
-        <f>2*(1/(1+EXP(-(G2-1)/(About!$B$11-1)*About!$B$13))-0.5)*About!$B$12</f>
+        <f>2*(1/(1+EXP(-(G2-1)/(About!$B$12-1)*About!$B$14))-0.5)*About!$B$13</f>
         <v>0.3411308951190849</v>
       </c>
       <c r="H1">
-        <f>2*(1/(1+EXP(-(H2-1)/(About!$B$11-1)*About!$B$13))-0.5)*About!$B$12</f>
+        <f>2*(1/(1+EXP(-(H2-1)/(About!$B$12-1)*About!$B$14))-0.5)*About!$B$13</f>
         <v>0.38079707797788254</v>
       </c>
       <c r="I1">
-        <f>2*(1/(1+EXP(-(I2-1)/(About!$B$11-1)*About!$B$13))-0.5)*About!$B$12</f>
+        <f>2*(1/(1+EXP(-(I2-1)/(About!$B$12-1)*About!$B$14))-0.5)*About!$B$13</f>
         <v>0.41160032279294168</v>
       </c>
       <c r="J1">
-        <f>2*(1/(1+EXP(-(J2-1)/(About!$B$11-1)*About!$B$13))-0.5)*About!$B$12</f>
+        <f>2*(1/(1+EXP(-(J2-1)/(About!$B$12-1)*About!$B$14))-0.5)*About!$B$13</f>
         <v>0.43503083087133598</v>
       </c>
       <c r="K1">
-        <f>2*(1/(1+EXP(-(K2-1)/(About!$B$11-1)*About!$B$13))-0.5)*About!$B$12</f>
+        <f>2*(1/(1+EXP(-(K2-1)/(About!$B$12-1)*About!$B$14))-0.5)*About!$B$13</f>
         <v>0.45257412682243336</v>
       </c>
       <c r="L1">
-        <f>2*(1/(1+EXP(-(L2-1)/(About!$B$11-1)*About!$B$13))-0.5)*About!$B$12</f>
+        <f>2*(1/(1+EXP(-(L2-1)/(About!$B$12-1)*About!$B$14))-0.5)*About!$B$13</f>
         <v>0.46555480433378893</v>
       </c>
       <c r="M1">
-        <f>2*(1/(1+EXP(-(M2-1)/(About!$B$11-1)*About!$B$13))-0.5)*About!$B$12</f>
+        <f>2*(1/(1+EXP(-(M2-1)/(About!$B$12-1)*About!$B$14))-0.5)*About!$B$13</f>
         <v>0.47507557335288597</v>
       </c>
       <c r="N1">
-        <f>2*(1/(1+EXP(-(N2-1)/(About!$B$11-1)*About!$B$13))-0.5)*About!$B$12</f>
+        <f>2*(1/(1+EXP(-(N2-1)/(About!$B$12-1)*About!$B$14))-0.5)*About!$B$13</f>
         <v>0.48201379003790845</v>
       </c>
       <c r="O1">
-        <f>About!$B$12</f>
+        <f>About!$B$13</f>
         <v>0.5</v>
       </c>
     </row>
@@ -5109,4 +5118,2400 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C5DFE4-6336-427D-B509-77FBC5D5DDAF}">
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
+  <dimension ref="A1:AE25"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:AE8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>2021</v>
+      </c>
+      <c r="C1">
+        <v>2022</v>
+      </c>
+      <c r="D1">
+        <v>2023</v>
+      </c>
+      <c r="E1">
+        <v>2024</v>
+      </c>
+      <c r="F1">
+        <v>2025</v>
+      </c>
+      <c r="G1">
+        <v>2026</v>
+      </c>
+      <c r="H1">
+        <v>2027</v>
+      </c>
+      <c r="I1">
+        <v>2028</v>
+      </c>
+      <c r="J1">
+        <v>2029</v>
+      </c>
+      <c r="K1">
+        <v>2030</v>
+      </c>
+      <c r="L1">
+        <v>2031</v>
+      </c>
+      <c r="M1">
+        <v>2032</v>
+      </c>
+      <c r="N1">
+        <v>2033</v>
+      </c>
+      <c r="O1">
+        <v>2034</v>
+      </c>
+      <c r="P1">
+        <v>2035</v>
+      </c>
+      <c r="Q1">
+        <v>2036</v>
+      </c>
+      <c r="R1">
+        <v>2037</v>
+      </c>
+      <c r="S1">
+        <v>2038</v>
+      </c>
+      <c r="T1">
+        <v>2039</v>
+      </c>
+      <c r="U1">
+        <v>2040</v>
+      </c>
+      <c r="V1">
+        <v>2041</v>
+      </c>
+      <c r="W1">
+        <v>2042</v>
+      </c>
+      <c r="X1">
+        <v>2043</v>
+      </c>
+      <c r="Y1">
+        <v>2044</v>
+      </c>
+      <c r="Z1">
+        <v>2045</v>
+      </c>
+      <c r="AA1">
+        <v>2046</v>
+      </c>
+      <c r="AB1">
+        <v>2047</v>
+      </c>
+      <c r="AC1">
+        <v>2048</v>
+      </c>
+      <c r="AD1">
+        <v>2049</v>
+      </c>
+      <c r="AE1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>0.05</v>
+      </c>
+      <c r="D7">
+        <v>0.05</v>
+      </c>
+      <c r="E7">
+        <v>0.05</v>
+      </c>
+      <c r="F7">
+        <v>0.05</v>
+      </c>
+      <c r="G7">
+        <v>0.05</v>
+      </c>
+      <c r="H7">
+        <v>0.05</v>
+      </c>
+      <c r="I7">
+        <v>0.05</v>
+      </c>
+      <c r="J7">
+        <v>0.05</v>
+      </c>
+      <c r="K7">
+        <v>0.05</v>
+      </c>
+      <c r="L7">
+        <v>0.05</v>
+      </c>
+      <c r="M7">
+        <v>0.05</v>
+      </c>
+      <c r="N7">
+        <v>0.05</v>
+      </c>
+      <c r="O7">
+        <v>0.05</v>
+      </c>
+      <c r="P7">
+        <v>0.05</v>
+      </c>
+      <c r="Q7">
+        <v>0.05</v>
+      </c>
+      <c r="R7">
+        <v>0.05</v>
+      </c>
+      <c r="S7">
+        <v>0.05</v>
+      </c>
+      <c r="T7">
+        <v>0.05</v>
+      </c>
+      <c r="U7">
+        <v>0.05</v>
+      </c>
+      <c r="V7">
+        <v>0.05</v>
+      </c>
+      <c r="W7">
+        <v>0.05</v>
+      </c>
+      <c r="X7">
+        <v>0.05</v>
+      </c>
+      <c r="Y7">
+        <v>0.05</v>
+      </c>
+      <c r="Z7">
+        <v>0.05</v>
+      </c>
+      <c r="AA7">
+        <v>0.05</v>
+      </c>
+      <c r="AB7">
+        <v>0.05</v>
+      </c>
+      <c r="AC7">
+        <v>0.05</v>
+      </c>
+      <c r="AD7">
+        <v>0.05</v>
+      </c>
+      <c r="AE7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.05</v>
+      </c>
+      <c r="C8">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>0.05</v>
+      </c>
+      <c r="E8">
+        <v>0.05</v>
+      </c>
+      <c r="F8">
+        <v>0.05</v>
+      </c>
+      <c r="G8">
+        <v>0.05</v>
+      </c>
+      <c r="H8">
+        <v>0.05</v>
+      </c>
+      <c r="I8">
+        <v>0.05</v>
+      </c>
+      <c r="J8">
+        <v>0.05</v>
+      </c>
+      <c r="K8">
+        <v>0.05</v>
+      </c>
+      <c r="L8">
+        <v>0.05</v>
+      </c>
+      <c r="M8">
+        <v>0.05</v>
+      </c>
+      <c r="N8">
+        <v>0.05</v>
+      </c>
+      <c r="O8">
+        <v>0.05</v>
+      </c>
+      <c r="P8">
+        <v>0.05</v>
+      </c>
+      <c r="Q8">
+        <v>0.05</v>
+      </c>
+      <c r="R8">
+        <v>0.05</v>
+      </c>
+      <c r="S8">
+        <v>0.05</v>
+      </c>
+      <c r="T8">
+        <v>0.05</v>
+      </c>
+      <c r="U8">
+        <v>0.05</v>
+      </c>
+      <c r="V8">
+        <v>0.05</v>
+      </c>
+      <c r="W8">
+        <v>0.05</v>
+      </c>
+      <c r="X8">
+        <v>0.05</v>
+      </c>
+      <c r="Y8">
+        <v>0.05</v>
+      </c>
+      <c r="Z8">
+        <v>0.05</v>
+      </c>
+      <c r="AA8">
+        <v>0.05</v>
+      </c>
+      <c r="AB8">
+        <v>0.05</v>
+      </c>
+      <c r="AC8">
+        <v>0.05</v>
+      </c>
+      <c r="AD8">
+        <v>0.05</v>
+      </c>
+      <c r="AE8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/InputData/elec/CSC/Capacity Supply Curve.xlsx
+++ b/InputData/elec/CSC/Capacity Supply Curve.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\OR\elec\CSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B45C70E-EF34-438B-88C8-B3156CA3F541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5ABDA74-74CC-4392-8E1F-B62C7233071C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="720" windowWidth="17025" windowHeight="17280" firstSheet="2" activeTab="3" xr2:uid="{F87DB1D1-DC21-4EA7-B1DF-998EE56837F8}"/>
+    <workbookView xWindow="15" yWindow="735" windowWidth="28785" windowHeight="17265" firstSheet="2" activeTab="2" xr2:uid="{F87DB1D1-DC21-4EA7-B1DF-998EE56837F8}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -132,9 +132,6 @@
     <t>hydrogen combined cycle es</t>
   </si>
   <si>
-    <t>(MW)</t>
-  </si>
-  <si>
     <t>CSC Capacity Supply Curve Capacity Cost Multiplier vs Share of Existing Capacity Built this Year</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>CSC Capacity Supply Curve Share of Cost Effective Hybrid Capacity Built in a Single Year</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
   <si>
     <t>Oregon</t>
@@ -2489,28 +2489,28 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="2">
-        <v>45450</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2528,12 +2528,12 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>1.45</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>0.5</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -2697,7 +2697,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2708,7 +2708,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2716,7 +2716,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>5000</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -2731,7 +2731,7 @@
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/InputData/elec/CSC/Capacity Supply Curve.xlsx
+++ b/InputData/elec/CSC/Capacity Supply Curve.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\OR\elec\CSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5ABDA74-74CC-4392-8E1F-B62C7233071C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F60CABF-C810-4F8B-B1B0-0E9670AEAE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="735" windowWidth="28785" windowHeight="17265" firstSheet="2" activeTab="2" xr2:uid="{F87DB1D1-DC21-4EA7-B1DF-998EE56837F8}"/>
+    <workbookView xWindow="7290" yWindow="1140" windowWidth="21240" windowHeight="12720" firstSheet="2" activeTab="2" xr2:uid="{F87DB1D1-DC21-4EA7-B1DF-998EE56837F8}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2495,7 +2495,7 @@
         <v>40</v>
       </c>
       <c r="C1" s="2">
-        <v>45497</v>
+        <v>45504</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2716,7 +2716,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/CSC/Capacity Supply Curve.xlsx
+++ b/InputData/elec/CSC/Capacity Supply Curve.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\OR\elec\CSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F60CABF-C810-4F8B-B1B0-0E9670AEAE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20555018-63EC-4B83-8553-18AD7436FD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7290" yWindow="1140" windowWidth="21240" windowHeight="12720" firstSheet="2" activeTab="2" xr2:uid="{F87DB1D1-DC21-4EA7-B1DF-998EE56837F8}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="12645" firstSheet="2" activeTab="3" xr2:uid="{F87DB1D1-DC21-4EA7-B1DF-998EE56837F8}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2495,7 +2495,7 @@
         <v>40</v>
       </c>
       <c r="C1" s="2">
-        <v>45504</v>
+        <v>45518</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2697,7 +2697,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2731,8 +2731,8 @@
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AE25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2840,94 +2840,94 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -2935,94 +2935,94 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -3030,94 +3030,94 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -3125,94 +3125,94 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -3220,94 +3220,94 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -3315,94 +3315,94 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -3410,94 +3410,94 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AE8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -3505,94 +3505,94 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AE9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
@@ -3600,94 +3600,94 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -3695,94 +3695,94 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -3790,94 +3790,94 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AE12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -3885,94 +3885,94 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AD13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AE13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -3980,94 +3980,94 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AD14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AE14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -4075,94 +4075,94 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AD15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AE15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -4170,94 +4170,94 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AD16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AE16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -4265,94 +4265,94 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AD17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AE17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
@@ -4360,94 +4360,94 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AD18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AE18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -4455,94 +4455,94 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AD19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AE19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
@@ -4550,94 +4550,94 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AD20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AE20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -4645,94 +4645,94 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AD21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AE21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
@@ -4740,94 +4740,94 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AD22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AE22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
@@ -4835,94 +4835,94 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AD23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AE23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
@@ -4930,94 +4930,94 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AD24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AE24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -5025,94 +5025,94 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AD25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AE25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/CSC/Capacity Supply Curve.xlsx
+++ b/InputData/elec/CSC/Capacity Supply Curve.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\OR\elec\CSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20555018-63EC-4B83-8553-18AD7436FD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40D79A32-016A-4A9D-B5A5-BEE83D801FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="12645" firstSheet="2" activeTab="3" xr2:uid="{F87DB1D1-DC21-4EA7-B1DF-998EE56837F8}"/>
+    <workbookView xWindow="4590" yWindow="4590" windowWidth="21600" windowHeight="12645" activeTab="3" xr2:uid="{F87DB1D1-DC21-4EA7-B1DF-998EE56837F8}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="CSC-CSCCCMvSoECBtY" sheetId="2" r:id="rId2"/>
-    <sheet name="CSC-CSCMBCfPTwNEC" sheetId="3" r:id="rId3"/>
-    <sheet name="CSC-CSCSoCECBiaSY" sheetId="4" r:id="rId4"/>
-    <sheet name="CSC-CSCSoCEHCBiaSY" sheetId="5" r:id="rId5"/>
+    <sheet name="state specific NEC" sheetId="7" r:id="rId2"/>
+    <sheet name="CSC-CSCCCMvSoECBtY" sheetId="2" r:id="rId3"/>
+    <sheet name="CSC-CSCMBCfPTwNEC" sheetId="3" r:id="rId4"/>
+    <sheet name="CSC-CSCSoCECBiaSY" sheetId="4" r:id="rId5"/>
+    <sheet name="CSC-CSCSoCEHCBiaSY" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="141">
   <si>
     <t xml:space="preserve">Source: </t>
   </si>
@@ -54,9 +55,6 @@
     <t>Cost multiplier</t>
   </si>
   <si>
-    <t>Minimum capacity</t>
-  </si>
-  <si>
     <t>Time (Year)</t>
   </si>
   <si>
@@ -141,32 +139,335 @@
     <t>CSC Capacity Supply Curve Share of Cost Effective Capacity Built in a Single Year</t>
   </si>
   <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
     <t>Supply Curve Parameters</t>
   </si>
   <si>
-    <t>Max share of existing capacity buildable</t>
-  </si>
-  <si>
     <t>CSC Capacity Supply Curve Share of Cost Effective Hybrid Capacity Built in a Single Year</t>
   </si>
   <si>
-    <t>%</t>
+    <t>% of total installed capacity</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>parameter 1</t>
+  </si>
+  <si>
+    <t>parameter 2</t>
+  </si>
+  <si>
+    <t>max share</t>
+  </si>
+  <si>
+    <t>multiplier cutoff</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
   <si>
     <t>Oregon</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>WY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +479,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -203,9 +511,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -384,40 +693,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2570206462314721E-2</c:v>
+                  <c:v>2.9962456884000122E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16075636876581723</c:v>
+                  <c:v>2.3473206571269223E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23105857863000479</c:v>
+                  <c:v>7.4900141956719624E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29139147267395504</c:v>
+                  <c:v>0.15966347062760222</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3411308951190849</c:v>
+                  <c:v>0.26412705355846133</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.38079707797788254</c:v>
+                  <c:v>0.36349842917090391</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41160032279294168</c:v>
+                  <c:v>0.43637539384532031</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.43503083087133598</c:v>
+                  <c:v>0.47696021108917119</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45257412682243336</c:v>
+                  <c:v>0.49374775762398693</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.46555480433378893</c:v>
+                  <c:v>0.4987735918534465</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.47507557335288597</c:v>
+                  <c:v>0.49983226868604874</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.48201379003790845</c:v>
+                  <c:v>0.49998457194554841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -679,6 +988,889 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>About!$C$21:$C$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.3600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.3700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.3800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.3900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.4100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.4200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.4300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.4400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.4500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.4600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.4700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.4800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.4900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.5100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.5200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.5300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.5400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.5500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.5600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.5700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.5800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.5900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.6100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.6200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.6300000000000006</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6500000000000006</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6600000000000006</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.6800000000000006</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.6900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7100000000000006</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.7300000000000006</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.7400000000000007</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.7500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.7600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.7700000000000007</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.7800000000000007</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.7900000000000007</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.8100000000000007</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.8200000000000007</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.8300000000000007</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.8400000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.8500000000000008</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.8600000000000008</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.8700000000000008</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.8800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.8900000000000008</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.9000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.9100000000000008</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.9200000000000008</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.9300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.9400000000000008</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.9500000000000008</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.9700000000000009</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.9800000000000009</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.9900000000000009</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.0100000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>About!$B$21:$B$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>2.4041495616800024E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9229960041033944E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4871479274314359E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5363275637635954E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9962456884000122E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1662128652874006E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1787999479949192E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2159252732797055E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7223045498576117E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3473206571269223E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0997500234635322E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9865567220398856E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0126142457089129E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.1804482243504932E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.4900141956719901E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.9385248244384874E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.10520340498301078</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.12226935901674252</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.14046952920696243</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.15966347062760267</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.17968630558391707</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20035210607723114</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22145816076288932</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24279000646233656</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.26412705355846178</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.2852485900850692</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.30593991493344896</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.32599832983443455</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.34523871531305683</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.36349842917090425</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.38064129731528962</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.39656051444532991</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.41118033320243297</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.42445649053243717</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.43637539384532065</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.44695216127096254</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.4562276741678255</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.46426485100526288</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.47114438598562269</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.47696021108917142</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.48181493622808969</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.48581550032261223</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.48906922940547914</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.49168045056913828</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.49374775762398698</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.49536197077070659</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.49660478299595257</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.49754804397175195</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49825360046900036</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.4987735918534465</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.49915109001197139</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.49942097387364487</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.49961093758286002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.49974254596131784</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.49983226868604874</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.49989244334063315</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.49993213530833991</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.49995787803925179</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.49997428976150043</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.49998457194554841</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.49999090089962539</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.4999947271831322</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.49999699863673219</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.49999832235222452</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.49999907941465183</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.49999950422675427</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.49999973804145276</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.49999986423518789</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.49999993100434548</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.49999996562752336</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.49999998321856143</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.49999999197303208</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.49999999623943975</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.49999999827492908</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.49999999922537869</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.49999999965961162</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.49999999985366861</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.49999999993847488</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.49999999997470734</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.49999999998983663</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.49999999999600925</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.49999999999846917</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.49999999999942651</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.49999999999979022</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.49999999999992512</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.49999999999997391</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.49999999999999112</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.49999999999999706</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.49999999999999906</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.49999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.49999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-74B0-4FB8-B3A9-2CABD5DD9729}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="535723327"/>
+        <c:axId val="535710847"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="535723327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="535710847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="535710847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="535723327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
@@ -751,40 +1943,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2570206462314721E-2</c:v>
+                  <c:v>2.9962456884000122E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16075636876581723</c:v>
+                  <c:v>2.3473206571269223E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23105857863000479</c:v>
+                  <c:v>7.4900141956719624E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29139147267395504</c:v>
+                  <c:v>0.15966347062760222</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3411308951190849</c:v>
+                  <c:v>0.26412705355846133</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.38079707797788254</c:v>
+                  <c:v>0.36349842917090391</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41160032279294168</c:v>
+                  <c:v>0.43637539384532031</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.43503083087133598</c:v>
+                  <c:v>0.47696021108917119</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45257412682243336</c:v>
+                  <c:v>0.49374775762398693</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.46555480433378893</c:v>
+                  <c:v>0.4987735918534465</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.47507557335288597</c:v>
+                  <c:v>0.49983226868604874</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.48201379003790845</c:v>
+                  <c:v>0.49998457194554841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,6 +2216,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2095,20 +3327,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4572000</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2130,6 +3878,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1103698-6335-5964-6586-96038B70278E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2476,83 +4260,1437 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3D2DEE-686E-48A0-AC3D-0F54DEA5D0EC}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:M121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G1" sqref="G1:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="3">
+        <v>45528</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="2">
-        <v>45518</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="str">
+        <f>LOOKUP(B1,F1:G50,G1:G50)</f>
+        <v>OR</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B12">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
       <c r="B13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <v>3</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>1.5</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>(1-EXP(-((C20-($B$15-0.5))/$B$13)^$B$14))*$B$12</f>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f t="shared" ref="B21:B84" si="0">(1-EXP(-((C21-($B$15-0.5))/$B$13)^$B$14))*$B$12</f>
+        <v>2.4041495616800024E-5</v>
+      </c>
+      <c r="C21">
+        <f>C20+0.01</f>
+        <v>1.01</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>1.9229960041033944E-4</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:C85" si="1">C21+0.01</f>
+        <v>1.02</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>6.4871479274314359E-4</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>1.03</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>1.5363275637635954E-3</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>1.04</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>2.9962456884000122E-3</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>1.05</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>5.1662128652874006E-3</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>1.06</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>8.1787999479949192E-3</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>1.07</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>1.2159252732797055E-2</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>1.08</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>1.7223045498576117E-2</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>2.3473206571269223E-2</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>3.0997500234635322E-2</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>3.9865567220398856E-2</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>5.0126142457089129E-2</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>1.1300000000000001</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>6.1804482243504932E-2</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>7.4900141956719901E-2</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>8.9385248244384874E-2</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>1.1600000000000001</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>0.10520340498301078</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>1.1700000000000002</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>0.12226935901674252</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>1.1800000000000002</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>0.14046952920696243</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>1.1900000000000002</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>0.15966347062760267</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>0.17968630558391707</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>0.20035210607723114</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>1.2200000000000002</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>0.22145816076288932</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>1.2300000000000002</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>0.24279000646233656</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>1.2400000000000002</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>0.26412705355846178</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>1.2500000000000002</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>0.2852485900850692</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>1.2600000000000002</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>0.30593991493344896</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>1.2700000000000002</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>0.32599832983443455</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>1.2800000000000002</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>0.34523871531305683</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>1.2900000000000003</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>0.36349842917090425</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>0.38064129731528962</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>1.3100000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>0.39656051444532991</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>1.3200000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>0.41118033320243297</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>1.3300000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>0.42445649053243717</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>1.3400000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>0.43637539384532065</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>1.3500000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>0.44695216127096254</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>1.3600000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>0.4562276741678255</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>1.3700000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>0.46426485100526288</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>1.3800000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>0.47114438598562269</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>1.3900000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>0.47696021108917142</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>1.4000000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>0.48181493622808969</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>1.4100000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>0.48581550032261223</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>1.4200000000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>0.48906922940547914</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>1.4300000000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>0.49168045056913828</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>1.4400000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>0.49374775762398698</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>1.4500000000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>0.49536197077070659</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>1.4600000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>0.49660478299595257</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="1"/>
+        <v>1.4700000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <f t="shared" si="0"/>
+        <v>0.49754804397175195</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>1.4800000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <f t="shared" si="0"/>
+        <v>0.49825360046900036</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>1.4900000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <f t="shared" si="0"/>
+        <v>0.4987735918534465</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>1.5000000000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <f t="shared" si="0"/>
+        <v>0.49915109001197139</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>1.5100000000000005</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <f t="shared" si="0"/>
+        <v>0.49942097387364487</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>1.5200000000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <f t="shared" si="0"/>
+        <v>0.49961093758286002</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>1.5300000000000005</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <f t="shared" si="0"/>
+        <v>0.49974254596131784</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>1.5400000000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <f t="shared" si="0"/>
+        <v>0.49983226868604874</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>1.5500000000000005</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <f t="shared" si="0"/>
+        <v>0.49989244334063315</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>1.5600000000000005</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <f t="shared" si="0"/>
+        <v>0.49993213530833991</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>1.5700000000000005</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <f t="shared" si="0"/>
+        <v>0.49995787803925179</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>1.5800000000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <f t="shared" si="0"/>
+        <v>0.49997428976150043</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>1.5900000000000005</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <f t="shared" si="0"/>
+        <v>0.49998457194554841</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>1.6000000000000005</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <f t="shared" si="0"/>
+        <v>0.49999090089962539</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>1.6100000000000005</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <f t="shared" si="0"/>
+        <v>0.4999947271831322</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>1.6200000000000006</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <f t="shared" si="0"/>
+        <v>0.49999699863673219</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>1.6300000000000006</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <f t="shared" si="0"/>
+        <v>0.49999832235222452</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>1.6400000000000006</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <f t="shared" ref="B85:B121" si="2">(1-EXP(-((C85-($B$15-0.5))/$B$13)^$B$14))*$B$12</f>
+        <v>0.49999907941465183</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>1.6500000000000006</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <f t="shared" si="2"/>
+        <v>0.49999950422675427</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ref="C86:C121" si="3">C85+0.01</f>
+        <v>1.6600000000000006</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <f t="shared" si="2"/>
+        <v>0.49999973804145276</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="3"/>
+        <v>1.6700000000000006</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <f t="shared" si="2"/>
+        <v>0.49999986423518789</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="3"/>
+        <v>1.6800000000000006</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <f t="shared" si="2"/>
+        <v>0.49999993100434548</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="3"/>
+        <v>1.6900000000000006</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <f t="shared" si="2"/>
+        <v>0.49999996562752336</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="3"/>
+        <v>1.7000000000000006</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <f t="shared" si="2"/>
+        <v>0.49999998321856143</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="3"/>
+        <v>1.7100000000000006</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <f t="shared" si="2"/>
+        <v>0.49999999197303208</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="3"/>
+        <v>1.7200000000000006</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <f t="shared" si="2"/>
+        <v>0.49999999623943975</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="3"/>
+        <v>1.7300000000000006</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <f t="shared" si="2"/>
+        <v>0.49999999827492908</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="3"/>
+        <v>1.7400000000000007</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <f t="shared" si="2"/>
+        <v>0.49999999922537869</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000007</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <f t="shared" si="2"/>
+        <v>0.49999999965961162</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="3"/>
+        <v>1.7600000000000007</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <f t="shared" si="2"/>
+        <v>0.49999999985366861</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="3"/>
+        <v>1.7700000000000007</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <f t="shared" si="2"/>
+        <v>0.49999999993847488</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="3"/>
+        <v>1.7800000000000007</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <f t="shared" si="2"/>
+        <v>0.49999999997470734</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="3"/>
+        <v>1.7900000000000007</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <f t="shared" si="2"/>
+        <v>0.49999999998983663</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="3"/>
+        <v>1.8000000000000007</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <f t="shared" si="2"/>
+        <v>0.49999999999600925</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="3"/>
+        <v>1.8100000000000007</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <f t="shared" si="2"/>
+        <v>0.49999999999846917</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="3"/>
+        <v>1.8200000000000007</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <f t="shared" si="2"/>
+        <v>0.49999999999942651</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="3"/>
+        <v>1.8300000000000007</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <f t="shared" si="2"/>
+        <v>0.49999999999979022</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="3"/>
+        <v>1.8400000000000007</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <f t="shared" si="2"/>
+        <v>0.49999999999992512</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="3"/>
+        <v>1.8500000000000008</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <f t="shared" si="2"/>
+        <v>0.49999999999997391</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="3"/>
+        <v>1.8600000000000008</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <f t="shared" si="2"/>
+        <v>0.49999999999999112</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="3"/>
+        <v>1.8700000000000008</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <f t="shared" si="2"/>
+        <v>0.49999999999999706</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="3"/>
+        <v>1.8800000000000008</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <f t="shared" si="2"/>
+        <v>0.49999999999999906</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="3"/>
+        <v>1.8900000000000008</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <f t="shared" si="2"/>
+        <v>0.49999999999999972</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="3"/>
+        <v>1.9000000000000008</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <f t="shared" si="2"/>
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="3"/>
+        <v>1.9100000000000008</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="3"/>
+        <v>1.9200000000000008</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="3"/>
+        <v>1.9300000000000008</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="3"/>
+        <v>1.9400000000000008</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="3"/>
+        <v>1.9500000000000008</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="3"/>
+        <v>1.9600000000000009</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="3"/>
+        <v>1.9700000000000009</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="3"/>
+        <v>1.9800000000000009</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="3"/>
+        <v>1.9900000000000009</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000009</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="3"/>
+        <v>2.0100000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -2562,6 +5700,421 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2D56DC-B88D-4D01-A53F-63CA8F6465A4}">
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50">
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A8C2E7-868E-446E-8321-CDDE5386BCAC}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -2569,12 +6122,13 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C1" sqref="C1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -2585,55 +6139,55 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <f>2*(1/(1+EXP(-(C2-1)/(About!$B$12-1)*About!$B$14))-0.5)*About!$B$13</f>
-        <v>8.2570206462314721E-2</v>
+        <f>(1-EXP(-((C2-1)/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>2.9962456884000122E-3</v>
       </c>
       <c r="D1">
-        <f>2*(1/(1+EXP(-(D2-1)/(About!$B$12-1)*About!$B$14))-0.5)*About!$B$13</f>
-        <v>0.16075636876581723</v>
+        <f>(1-EXP(-((D2-1)/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>2.3473206571269223E-2</v>
       </c>
       <c r="E1">
-        <f>2*(1/(1+EXP(-(E2-1)/(About!$B$12-1)*About!$B$14))-0.5)*About!$B$13</f>
-        <v>0.23105857863000479</v>
+        <f>(1-EXP(-((E2-1)/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>7.4900141956719624E-2</v>
       </c>
       <c r="F1">
-        <f>2*(1/(1+EXP(-(F2-1)/(About!$B$12-1)*About!$B$14))-0.5)*About!$B$13</f>
-        <v>0.29139147267395504</v>
+        <f>(1-EXP(-((F2-1)/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.15966347062760222</v>
       </c>
       <c r="G1">
-        <f>2*(1/(1+EXP(-(G2-1)/(About!$B$12-1)*About!$B$14))-0.5)*About!$B$13</f>
-        <v>0.3411308951190849</v>
+        <f>(1-EXP(-((G2-1)/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.26412705355846133</v>
       </c>
       <c r="H1">
-        <f>2*(1/(1+EXP(-(H2-1)/(About!$B$12-1)*About!$B$14))-0.5)*About!$B$13</f>
-        <v>0.38079707797788254</v>
+        <f>(1-EXP(-((H2-1)/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.36349842917090391</v>
       </c>
       <c r="I1">
-        <f>2*(1/(1+EXP(-(I2-1)/(About!$B$12-1)*About!$B$14))-0.5)*About!$B$13</f>
-        <v>0.41160032279294168</v>
+        <f>(1-EXP(-((I2-1)/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.43637539384532031</v>
       </c>
       <c r="J1">
-        <f>2*(1/(1+EXP(-(J2-1)/(About!$B$12-1)*About!$B$14))-0.5)*About!$B$13</f>
-        <v>0.43503083087133598</v>
+        <f>(1-EXP(-((J2-1)/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.47696021108917119</v>
       </c>
       <c r="K1">
-        <f>2*(1/(1+EXP(-(K2-1)/(About!$B$12-1)*About!$B$14))-0.5)*About!$B$13</f>
-        <v>0.45257412682243336</v>
+        <f>(1-EXP(-((K2-1)/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.49374775762398693</v>
       </c>
       <c r="L1">
-        <f>2*(1/(1+EXP(-(L2-1)/(About!$B$12-1)*About!$B$14))-0.5)*About!$B$13</f>
-        <v>0.46555480433378893</v>
+        <f>(1-EXP(-((L2-1)/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.4987735918534465</v>
       </c>
       <c r="M1">
-        <f>2*(1/(1+EXP(-(M2-1)/(About!$B$12-1)*About!$B$14))-0.5)*About!$B$13</f>
-        <v>0.47507557335288597</v>
+        <f>(1-EXP(-((M2-1)/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.49983226868604874</v>
       </c>
       <c r="N1">
-        <f>2*(1/(1+EXP(-(N2-1)/(About!$B$12-1)*About!$B$14))-0.5)*About!$B$13</f>
-        <v>0.48201379003790845</v>
+        <f>(1-EXP(-((N2-1)/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.49998457194554841</v>
       </c>
       <c r="O1">
-        <f>About!$B$13</f>
+        <f>(1-EXP(-((O2-1)/About!$B$13)^About!$B$14))*About!$B$12</f>
         <v>0.5</v>
       </c>
     </row>
@@ -2690,15 +6244,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCC8EED-C1F0-46D1-887C-CF4C1E6085B7}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2708,14 +6262,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B2">
+        <f>INDEX('state specific NEC'!B:B,MATCH(About!B2,'state specific NEC'!A:A,0))</f>
         <v>0.6</v>
       </c>
     </row>
@@ -2724,15 +6279,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B43497-B8E3-4CCE-9609-B49065717FEC}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AE25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2742,7 +6297,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1">
         <v>2021</v>
@@ -2837,2282 +6392,2282 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="U11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="V11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="U16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AE16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AE17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="U18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AE18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AE19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="U20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AE20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="U23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="V23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AE23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="U24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AE24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="U25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="V25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AE25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5120,14 +8675,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C5DFE4-6336-427D-B509-77FBC5D5DDAF}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:AE8"/>
     </sheetView>
   </sheetViews>
@@ -5138,7 +8693,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1">
         <v>2021</v>
@@ -5233,7 +8788,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5328,7 +8883,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5423,7 +8978,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5518,7 +9073,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5613,7 +9168,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5708,7 +9263,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>0.05</v>
@@ -5803,7 +9358,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>0.05</v>
@@ -5898,7 +9453,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5993,7 +9548,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6088,7 +9643,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6183,7 +9738,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6278,7 +9833,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -6373,7 +9928,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -6468,7 +10023,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -6563,7 +10118,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -6658,7 +10213,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -6753,7 +10308,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -6848,7 +10403,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -6943,7 +10498,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -7038,7 +10593,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -7133,7 +10688,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -7228,7 +10783,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -7323,7 +10878,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -7418,7 +10973,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>0</v>

--- a/InputData/elec/CSC/Capacity Supply Curve.xlsx
+++ b/InputData/elec/CSC/Capacity Supply Curve.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\OR\elec\CSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40D79A32-016A-4A9D-B5A5-BEE83D801FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3487A259-C423-4592-92FA-25B092BE9A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="4590" windowWidth="21600" windowHeight="12645" activeTab="3" xr2:uid="{F87DB1D1-DC21-4EA7-B1DF-998EE56837F8}"/>
+    <workbookView xWindow="915" yWindow="885" windowWidth="19965" windowHeight="7170" activeTab="3" xr2:uid="{F87DB1D1-DC21-4EA7-B1DF-998EE56837F8}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="state specific NEC" sheetId="7" r:id="rId2"/>
+    <sheet name="state specific NEC" sheetId="6" r:id="rId2"/>
     <sheet name="CSC-CSCCCMvSoECBtY" sheetId="2" r:id="rId3"/>
     <sheet name="CSC-CSCMBCfPTwNEC" sheetId="3" r:id="rId4"/>
     <sheet name="CSC-CSCSoCECBiaSY" sheetId="4" r:id="rId5"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="142">
   <si>
     <t xml:space="preserve">Source: </t>
   </si>
@@ -52,9 +52,6 @@
     <t>Share of existing capacity</t>
   </si>
   <si>
-    <t>Cost multiplier</t>
-  </si>
-  <si>
     <t>Time (Year)</t>
   </si>
   <si>
@@ -163,304 +160,310 @@
     <t>multiplier cutoff</t>
   </si>
   <si>
+    <t>Max profitability cutoff</t>
+  </si>
+  <si>
+    <t>Incremental Revenue</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
     <t>California</t>
   </si>
   <si>
     <t>Alabama</t>
   </si>
   <si>
-    <t>AL</t>
-  </si>
-  <si>
     <t>Alaska</t>
   </si>
   <si>
-    <t>AK</t>
-  </si>
-  <si>
     <t>Arizona</t>
   </si>
   <si>
-    <t>AZ</t>
-  </si>
-  <si>
     <t>Arkansas</t>
   </si>
   <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
     <t>Colorado</t>
   </si>
   <si>
-    <t>CO</t>
-  </si>
-  <si>
     <t>Connecticut</t>
   </si>
   <si>
-    <t>CT</t>
-  </si>
-  <si>
     <t>Delaware</t>
   </si>
   <si>
-    <t>DE</t>
-  </si>
-  <si>
     <t>Florida</t>
   </si>
   <si>
-    <t>FL</t>
-  </si>
-  <si>
     <t>Georgia</t>
   </si>
   <si>
-    <t>GA</t>
-  </si>
-  <si>
     <t>Hawaii</t>
   </si>
   <si>
-    <t>HI</t>
-  </si>
-  <si>
     <t>Idaho</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Illinois</t>
   </si>
   <si>
-    <t>IL</t>
-  </si>
-  <si>
     <t>Indiana</t>
   </si>
   <si>
-    <t>IN</t>
-  </si>
-  <si>
     <t>Iowa</t>
   </si>
   <si>
-    <t>IA</t>
-  </si>
-  <si>
     <t>Kansas</t>
   </si>
   <si>
-    <t>KS</t>
-  </si>
-  <si>
     <t>Kentucky</t>
   </si>
   <si>
-    <t>KY</t>
-  </si>
-  <si>
     <t>Louisiana</t>
   </si>
   <si>
-    <t>LA</t>
-  </si>
-  <si>
     <t>Maine</t>
   </si>
   <si>
-    <t>ME</t>
-  </si>
-  <si>
     <t>Maryland</t>
   </si>
   <si>
-    <t>MD</t>
-  </si>
-  <si>
     <t>Massachusetts</t>
   </si>
   <si>
-    <t>MA</t>
-  </si>
-  <si>
     <t>Michigan</t>
   </si>
   <si>
-    <t>MI</t>
-  </si>
-  <si>
     <t>Minnesota</t>
   </si>
   <si>
-    <t>MN</t>
-  </si>
-  <si>
     <t>Mississippi</t>
   </si>
   <si>
-    <t>MS</t>
-  </si>
-  <si>
     <t>Missouri</t>
   </si>
   <si>
-    <t>MO</t>
-  </si>
-  <si>
     <t>Montana</t>
   </si>
   <si>
-    <t>MT</t>
-  </si>
-  <si>
     <t>Nebraska</t>
   </si>
   <si>
-    <t>NE</t>
-  </si>
-  <si>
     <t>Nevada</t>
   </si>
   <si>
-    <t>NV</t>
-  </si>
-  <si>
     <t>New Hampshire</t>
   </si>
   <si>
-    <t>NH</t>
-  </si>
-  <si>
     <t>New Jersey</t>
   </si>
   <si>
-    <t>NJ</t>
-  </si>
-  <si>
     <t>New Mexico</t>
   </si>
   <si>
-    <t>NM</t>
-  </si>
-  <si>
     <t>New York</t>
   </si>
   <si>
-    <t>NY</t>
-  </si>
-  <si>
     <t>North Carolina</t>
   </si>
   <si>
-    <t>NC</t>
-  </si>
-  <si>
     <t>North Dakota</t>
   </si>
   <si>
-    <t>ND</t>
-  </si>
-  <si>
     <t>Ohio</t>
   </si>
   <si>
-    <t>OH</t>
-  </si>
-  <si>
     <t>Oklahoma</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>Oregon</t>
   </si>
   <si>
-    <t>OR</t>
-  </si>
-  <si>
     <t>Pennsylvania</t>
   </si>
   <si>
-    <t>PA</t>
-  </si>
-  <si>
     <t>Rhode Island</t>
   </si>
   <si>
-    <t>RI</t>
-  </si>
-  <si>
     <t>South Carolina</t>
   </si>
   <si>
-    <t>SC</t>
-  </si>
-  <si>
     <t>South Dakota</t>
   </si>
   <si>
-    <t>SD</t>
-  </si>
-  <si>
     <t>Tennessee</t>
   </si>
   <si>
-    <t>TN</t>
-  </si>
-  <si>
     <t>Texas</t>
   </si>
   <si>
-    <t>TX</t>
-  </si>
-  <si>
     <t>Utah</t>
   </si>
   <si>
-    <t>UT</t>
-  </si>
-  <si>
     <t>Vermont</t>
   </si>
   <si>
-    <t>VT</t>
-  </si>
-  <si>
     <t>Virginia</t>
   </si>
   <si>
-    <t>VA</t>
-  </si>
-  <si>
     <t>Washington</t>
   </si>
   <si>
-    <t>WA</t>
-  </si>
-  <si>
     <t>West Virginia</t>
   </si>
   <si>
-    <t>WV</t>
-  </si>
-  <si>
     <t>Wisconsin</t>
   </si>
   <si>
-    <t>WI</t>
-  </si>
-  <si>
     <t>Wyoming</t>
-  </si>
-  <si>
-    <t>WY</t>
   </si>
 </sst>
 </file>
@@ -548,398 +551,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Supply Curve Function</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'CSC-CSCCCMvSoECBtY'!$B$2:$N$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.55</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'CSC-CSCCCMvSoECBtY'!$B$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.9962456884000122E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.3473206571269223E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.4900141956719624E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.15966347062760222</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.26412705355846133</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.36349842917090391</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.43637539384532031</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.47696021108917119</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.49374775762398693</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.4987735918534465</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.49983226868604874</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.49998457194554841</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-908C-4D72-A67B-057BE1973861}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="589529087"/>
-        <c:axId val="589529567"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="589529087"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="589529567"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="589529567"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="589529087"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -997,307 +608,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>1.01</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.02</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.03</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.04</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.05</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.06</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.07</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.08</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0900000000000001</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1100000000000001</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1200000000000001</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1300000000000001</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1400000000000001</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1500000000000001</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1600000000000001</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1700000000000002</c:v>
+                  <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1800000000000002</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1900000000000002</c:v>
+                  <c:v>4.75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2000000000000002</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2100000000000002</c:v>
+                  <c:v>5.25</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2200000000000002</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2300000000000002</c:v>
+                  <c:v>5.75</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.2400000000000002</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.2500000000000002</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2600000000000002</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2700000000000002</c:v>
+                  <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2800000000000002</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.2900000000000003</c:v>
+                  <c:v>7.25</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.3000000000000003</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.3100000000000003</c:v>
+                  <c:v>7.75</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3200000000000003</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.3300000000000003</c:v>
+                  <c:v>8.25</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.3400000000000003</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.3500000000000003</c:v>
+                  <c:v>8.75</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.3600000000000003</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.3700000000000003</c:v>
+                  <c:v>9.25</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.3800000000000003</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.3900000000000003</c:v>
+                  <c:v>9.75</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.4000000000000004</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.4100000000000004</c:v>
+                  <c:v>10.25</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.4200000000000004</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.4300000000000004</c:v>
+                  <c:v>10.75</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.4400000000000004</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.4500000000000004</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.4600000000000004</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.4700000000000004</c:v>
+                  <c:v>11.75</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.4800000000000004</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.4900000000000004</c:v>
+                  <c:v>12.25</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.5000000000000004</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.5100000000000005</c:v>
+                  <c:v>12.75</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.5200000000000005</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.5300000000000005</c:v>
+                  <c:v>13.25</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.5400000000000005</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.5500000000000005</c:v>
+                  <c:v>13.75</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.5600000000000005</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.5700000000000005</c:v>
+                  <c:v>14.25</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.5800000000000005</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.5900000000000005</c:v>
+                  <c:v>14.75</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.6000000000000005</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.6100000000000005</c:v>
+                  <c:v>15.25</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.6200000000000006</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.6300000000000006</c:v>
+                  <c:v>15.75</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.6400000000000006</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.6500000000000006</c:v>
+                  <c:v>16.25</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.6600000000000006</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.6700000000000006</c:v>
+                  <c:v>16.75</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.6800000000000006</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.6900000000000006</c:v>
+                  <c:v>17.25</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.7000000000000006</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.7100000000000006</c:v>
+                  <c:v>17.75</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.7200000000000006</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.7300000000000006</c:v>
+                  <c:v>18.25</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.7400000000000007</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.7500000000000007</c:v>
+                  <c:v>18.75</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.7600000000000007</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.7700000000000007</c:v>
+                  <c:v>19.25</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.7800000000000007</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.7900000000000007</c:v>
+                  <c:v>19.75</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.8000000000000007</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.8100000000000007</c:v>
+                  <c:v>20.25</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.8200000000000007</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.8300000000000007</c:v>
+                  <c:v>20.75</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.8400000000000007</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.8500000000000008</c:v>
+                  <c:v>21.25</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.8600000000000008</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.8700000000000008</c:v>
+                  <c:v>21.75</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.8800000000000008</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.8900000000000008</c:v>
+                  <c:v>22.25</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.9000000000000008</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.9100000000000008</c:v>
+                  <c:v>22.75</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.9200000000000008</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.9300000000000008</c:v>
+                  <c:v>23.25</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.9400000000000008</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.9500000000000008</c:v>
+                  <c:v>23.75</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.9600000000000009</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.9700000000000009</c:v>
+                  <c:v>24.25</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.9800000000000009</c:v>
+                  <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.9900000000000009</c:v>
+                  <c:v>24.75</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.0000000000000009</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.0100000000000007</c:v>
+                  <c:v>25.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1309,307 +920,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>2.4041495616800024E-5</c:v>
+                  <c:v>2.7126613468153591E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9229960041033944E-4</c:v>
+                  <c:v>2.1700603990693067E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4871479274314359E-4</c:v>
+                  <c:v>7.3233247530835044E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5363275637635954E-3</c:v>
+                  <c:v>1.7356088610352981E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9962456884000122E-3</c:v>
+                  <c:v>3.3889264340773994E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.1662128652874006E-3</c:v>
+                  <c:v>5.853656677573426E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.1787999479949192E-3</c:v>
+                  <c:v>9.2900565297051587E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2159252732797055E-2</c:v>
+                  <c:v>1.3856788240271701E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7223045498576117E-2</c:v>
+                  <c:v>1.9710355922915369E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3473206571269223E-2</c:v>
+                  <c:v>2.700446163192427E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0997500234635322E-2</c:v>
+                  <c:v>3.5889284688606191E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.9865567220398856E-2</c:v>
+                  <c:v>4.651068898377464E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.0126142457089129E-2</c:v>
+                  <c:v>5.9009364077483913E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.1804482243504932E-2</c:v>
+                  <c:v>7.3519907089534368E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.4900141956719901E-2</c:v>
+                  <c:v>9.0169853605967954E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.9385248244384874E-2</c:v>
+                  <c:v>1.0907866709614121E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.10520340498301078</c:v>
+                  <c:v>1.303566976172048E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.12226935901674252</c:v>
+                  <c:v>1.5410412185000931E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.14046952920696243</c:v>
+                  <c:v>1.8040987773186055E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.15966347062760267</c:v>
+                  <c:v>2.0935060809395944E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.17968630558391707</c:v>
+                  <c:v>2.4098962873959361E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.20035210607723114</c:v>
+                  <c:v>2.7537593727665208E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.22145816076288932</c:v>
+                  <c:v>3.1254327970773217E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.24279000646233656</c:v>
+                  <c:v>3.5250929224621363E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.26412705355846178</c:v>
+                  <c:v>3.9527473603179493E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.2852485900850692</c:v>
+                  <c:v>4.4082284233117663E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.30593991493344896</c:v>
+                  <c:v>4.8911878539958133E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.32599832983443455</c:v>
+                  <c:v>5.4010929942227434E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.34523871531305683</c:v>
+                  <c:v>5.9372245483401073E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.36349842917090425</c:v>
+                  <c:v>6.4986760781754541E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.38064129731528962</c:v>
+                  <c:v>7.0843553490771954E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.39656051444532991</c:v>
+                  <c:v>7.6929876238228126E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.41118033320243297</c:v>
+                  <c:v>8.3231209752196347E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.42445649053243717</c:v>
+                  <c:v>8.973133658987105E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.43637539384532065</c:v>
+                  <c:v>9.641243556416082E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.44695216127096254</c:v>
+                  <c:v>0.10325519661854952</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4562276741678255</c:v>
+                  <c:v>0.11023895553883063</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.46426485100526288</c:v>
+                  <c:v>0.11734184751806659</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.47114438598562269</c:v>
+                  <c:v>0.12454097821643233</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.47696021108917142</c:v>
+                  <c:v>0.13181261058906879</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.48181493622808969</c:v>
+                  <c:v>0.13913236540178756</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.48581550032261223</c:v>
+                  <c:v>0.14647543302575003</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.48906922940547914</c:v>
+                  <c:v>0.15381679380738991</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.49168045056913828</c:v>
+                  <c:v>0.16113144405783855</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.49374775762398698</c:v>
+                  <c:v>0.16839462450529405</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.49536197077070659</c:v>
+                  <c:v>0.17558204791159163</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.49660478299595257</c:v>
+                  <c:v>0.18267012247688577</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.49754804397175195</c:v>
+                  <c:v>0.18963616764856731</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.49825360046900036</c:v>
+                  <c:v>0.19645861901529907</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.4987735918534465</c:v>
+                  <c:v>0.20311721910542085</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.49915109001197139</c:v>
+                  <c:v>0.20959319111996269</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.49942097387364487</c:v>
+                  <c:v>0.21586939291098117</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.49961093758286002</c:v>
+                  <c:v>0.22193044886066229</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.49974254596131784</c:v>
+                  <c:v>0.2277628577183255</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.49983226868604874</c:v>
+                  <c:v>0.23335507490195029</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.49989244334063315</c:v>
+                  <c:v>0.23869756825732752</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.49993213530833991</c:v>
+                  <c:v>0.24378284677925793</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.49995787803925179</c:v>
+                  <c:v>0.24860546232227976</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.49997428976150043</c:v>
+                  <c:v>0.25316198484953234</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.49998457194554841</c:v>
+                  <c:v>0.25745095227379722</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.49999090089962539</c:v>
+                  <c:v>0.26147279642109311</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.4999947271831322</c:v>
+                  <c:v>0.26522974708186364</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.49999699863673219</c:v>
+                  <c:v>0.26872571649646854</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.49999832235222452</c:v>
+                  <c:v>0.27196616694071241</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.49999907941465183</c:v>
+                  <c:v>0.27495796432585551</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.49999950422675427</c:v>
+                  <c:v>0.27770922090054417</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.49999973804145276</c:v>
+                  <c:v>0.28022913023639223</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.49999986423518789</c:v>
+                  <c:v>0.28252779769408043</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.49999993100434548</c:v>
+                  <c:v>0.2846160695048362</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.49999996562752336</c:v>
+                  <c:v>0.28650536346742178</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.49999998321856143</c:v>
+                  <c:v>0.28820750405985879</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.49999999197303208</c:v>
+                  <c:v>0.2897345645065002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.49999999623943975</c:v>
+                  <c:v>0.29109871803469367</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.49999999827492908</c:v>
+                  <c:v>0.29231210021223275</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.49999999922537869</c:v>
+                  <c:v>0.29338668388880529</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.49999999965961162</c:v>
+                  <c:v>0.29433416788367545</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.49999999985366861</c:v>
+                  <c:v>0.29516588017958978</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.49999999993847488</c:v>
+                  <c:v>0.29589269601045221</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.49999999997470734</c:v>
+                  <c:v>0.29652497087771895</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.49999999998983663</c:v>
+                  <c:v>0.29707248820643462</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.49999999999600925</c:v>
+                  <c:v>0.2975444210635308</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.49999999999846917</c:v>
+                  <c:v>0.29794930711385315</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.49999999999942651</c:v>
+                  <c:v>0.29829503578700706</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.49999999999979022</c:v>
+                  <c:v>0.29858884647232875</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.49999999999992512</c:v>
+                  <c:v>0.29883733645020727</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.49999999999997391</c:v>
+                  <c:v>0.29904647720411548</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.49999999999999112</c:v>
+                  <c:v>0.29922163773619626</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.49999999999999706</c:v>
+                  <c:v>0.29936761352609076</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.49999999999999906</c:v>
+                  <c:v>0.29948865982299966</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.49999999999999972</c:v>
+                  <c:v>0.29958852803926317</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.49999999999999989</c:v>
+                  <c:v>0.29967050411421003</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.5</c:v>
+                  <c:v>0.29973744783379824</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.5</c:v>
+                  <c:v>0.29979183221893801</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.5</c:v>
+                  <c:v>0.29983578222801444</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.5</c:v>
+                  <c:v>0.29987111215221296</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.5</c:v>
+                  <c:v>0.29989936121162925</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.5</c:v>
+                  <c:v>0.29992182698238479</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.5</c:v>
+                  <c:v>0.29993959639739087</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.5</c:v>
+                  <c:v>0.29995357416407437</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2999645085300941</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.5</c:v>
+                  <c:v>0.29997301440226942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1808,6 +1419,541 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CSC-CSCCCMvSoECBtY'!$B$2:$AP$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CSC-CSCCCMvSoECBtY'!$B$1:$AP$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7126613468153591E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1700603990693067E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3233247530835044E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7356088610352981E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3889264340773994E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.853656677573426E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2900565297051587E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3856788240271701E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9710355922915369E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.700446163192427E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5889284688606191E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.651068898377464E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.9009364077483913E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.3519907089534368E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0169853605967954E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0907866709614121E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.303566976172048E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5410412185000931E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8040987773186055E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0935060809395944E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4098962873959361E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7537593727665208E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.1254327970773217E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.5250929224621363E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.9527473603179493E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.4082284233117663E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8911878539958133E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.4010929942227434E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.9372245483401073E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.4986760781754541E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.0843553490771954E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.6929876238228126E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.3231209752196347E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.973133658987105E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.641243556416082E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.10325519661854952</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.11023895553883063</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.11734184751806659</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.12454097821643233</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.13181261058906879</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E3E-4506-B7FF-2865DFAAB582}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1627802751"/>
+        <c:axId val="1627803711"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1627802751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1627803711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1627803711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1627802751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1887,96 +2033,264 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'CSC-CSCCCMvSoECBtY'!$B$2:$N$2</c:f>
+              <c:f>'CSC-CSCCCMvSoECBtY'!$B$2:$AP$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.35</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.45</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.55</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CSC-CSCCCMvSoECBtY'!$B$1:$N$1</c:f>
+              <c:f>'CSC-CSCCCMvSoECBtY'!$B$1:$AP$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9962456884000122E-3</c:v>
+                  <c:v>2.7126613468153591E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3473206571269223E-2</c:v>
+                  <c:v>2.1700603990693067E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4900141956719624E-2</c:v>
+                  <c:v>7.3233247530835044E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15966347062760222</c:v>
+                  <c:v>1.7356088610352981E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.26412705355846133</c:v>
+                  <c:v>3.3889264340773994E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36349842917090391</c:v>
+                  <c:v>5.853656677573426E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.43637539384532031</c:v>
+                  <c:v>9.2900565297051587E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47696021108917119</c:v>
+                  <c:v>1.3856788240271701E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.49374775762398693</c:v>
+                  <c:v>1.9710355922915369E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4987735918534465</c:v>
+                  <c:v>2.700446163192427E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.49983226868604874</c:v>
+                  <c:v>3.5889284688606191E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.49998457194554841</c:v>
+                  <c:v>4.651068898377464E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.9009364077483913E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.3519907089534368E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0169853605967954E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0907866709614121E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.303566976172048E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5410412185000931E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8040987773186055E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0935060809395944E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4098962873959361E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7537593727665208E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.1254327970773217E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.5250929224621363E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.9527473603179493E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.4082284233117663E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8911878539958133E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.4010929942227434E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.9372245483401073E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.4986760781754541E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.0843553490771954E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.6929876238228126E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.3231209752196347E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.973133658987105E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.641243556416082E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.10325519661854952</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.11023895553883063</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.11734184751806659</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.12454097821643233</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.13181261058906879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3848,51 +4162,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>4445</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4572000</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>74295</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C8AEA8B-FF98-4BE8-BCDC-8A0B95A3B297}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:colOff>5019675</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
@@ -3913,6 +4189,44 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5210175</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12E5539E-DC92-4633-8C32-ACBC3A592645}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
@@ -3926,16 +4240,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4260,10 +4574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3D2DEE-686E-48A0-AC3D-0F54DEA5D0EC}">
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G50"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4272,1425 +4586,1425 @@
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="3">
+        <v>45532</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="3">
-        <v>45528</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="B2" t="str">
         <f>LOOKUP(B1,F1:G50,G1:G50)</f>
         <v>OR</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="2" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="2" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="2" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F10" s="2" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>0.6</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>37</v>
-      </c>
-      <c r="B13">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>38</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>40</v>
       </c>
-      <c r="B15">
-        <v>1.5</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>20</v>
+      </c>
       <c r="F16" s="2" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F17" s="2" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F18" s="2" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F19" s="2" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20">
-        <f>(1-EXP(-((C20-($B$15-0.5))/$B$13)^$B$14))*$B$12</f>
+        <f>(1-EXP(-((C20/$B$16-($B$15-0.5))/$B$13)^$B$14))*$B$12</f>
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21">
-        <f t="shared" ref="B21:B84" si="0">(1-EXP(-((C21-($B$15-0.5))/$B$13)^$B$14))*$B$12</f>
-        <v>2.4041495616800024E-5</v>
+        <f t="shared" ref="B21:B84" si="0">(1-EXP(-((C21/$B$16-($B$15-0.5))/$B$13)^$B$14))*$B$12</f>
+        <v>2.7126613468153591E-6</v>
       </c>
       <c r="C21">
-        <f>C20+0.01</f>
-        <v>1.01</v>
+        <f>C20+0.25</f>
+        <v>0.25</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>1.9229960041033944E-4</v>
+        <v>2.1700603990693067E-5</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:C85" si="1">C21+0.01</f>
-        <v>1.02</v>
+        <f t="shared" ref="C22:C85" si="1">C21+0.25</f>
+        <v>0.5</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>6.4871479274314359E-4</v>
+        <v>7.3233247530835044E-5</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>1.03</v>
+        <v>0.75</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>1.5363275637635954E-3</v>
+        <v>1.7356088610352981E-4</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>2.9962456884000122E-3</v>
+        <v>3.3889264340773994E-4</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>5.1662128652874006E-3</v>
+        <v>5.853656677573426E-4</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>1.06</v>
+        <v>1.5</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>8.1787999479949192E-3</v>
+        <v>9.2900565297051587E-4</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>1.07</v>
+        <v>1.75</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>1.2159252732797055E-2</v>
+        <v>1.3856788240271701E-3</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>1.08</v>
+        <v>2</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>1.7223045498576117E-2</v>
+        <v>1.9710355922915369E-3</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>1.0900000000000001</v>
+        <v>2.25</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>2.3473206571269223E-2</v>
+        <v>2.700446163192427E-3</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>3.0997500234635322E-2</v>
+        <v>3.5889284688606191E-3</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>1.1100000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>3.9865567220398856E-2</v>
+        <v>4.651068898377464E-3</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>1.1200000000000001</v>
+        <v>3</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>5.0126142457089129E-2</v>
+        <v>5.9009364077483913E-3</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>1.1300000000000001</v>
+        <v>3.25</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>6.1804482243504932E-2</v>
+        <v>7.3519907089534368E-3</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>1.1400000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>7.4900141956719901E-2</v>
+        <v>9.0169853605967954E-3</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>1.1500000000000001</v>
+        <v>3.75</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>8.9385248244384874E-2</v>
+        <v>1.0907866709614121E-2</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>1.1600000000000001</v>
+        <v>4</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>0.10520340498301078</v>
+        <v>1.303566976172048E-2</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>1.1700000000000002</v>
+        <v>4.25</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>0.12226935901674252</v>
+        <v>1.5410412185000931E-2</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>1.1800000000000002</v>
+        <v>4.5</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>0.14046952920696243</v>
+        <v>1.8040987773186055E-2</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>1.1900000000000002</v>
+        <v>4.75</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>0.15966347062760267</v>
+        <v>2.0935060809395944E-2</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>1.2000000000000002</v>
+        <v>5</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>0.17968630558391707</v>
+        <v>2.4098962873959361E-2</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>1.2100000000000002</v>
+        <v>5.25</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>0.20035210607723114</v>
+        <v>2.7537593727665208E-2</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>1.2200000000000002</v>
+        <v>5.5</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>0.22145816076288932</v>
+        <v>3.1254327970773217E-2</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
-        <v>1.2300000000000002</v>
+        <v>5.75</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>0.24279000646233656</v>
+        <v>3.5250929224621363E-2</v>
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
-        <v>1.2400000000000002</v>
+        <v>6</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>0.26412705355846178</v>
+        <v>3.9527473603179493E-2</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
-        <v>1.2500000000000002</v>
+        <v>6.25</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>0.2852485900850692</v>
+        <v>4.4082284233117663E-2</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
-        <v>1.2600000000000002</v>
+        <v>6.5</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>0.30593991493344896</v>
+        <v>4.8911878539958133E-2</v>
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
-        <v>1.2700000000000002</v>
+        <v>6.75</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>0.32599832983443455</v>
+        <v>5.4010929942227434E-2</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
-        <v>1.2800000000000002</v>
+        <v>7</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>0.34523871531305683</v>
+        <v>5.9372245483401073E-2</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
-        <v>1.2900000000000003</v>
+        <v>7.25</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>0.36349842917090425</v>
+        <v>6.4986760781754541E-2</v>
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
-        <v>1.3000000000000003</v>
+        <v>7.5</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>0.38064129731528962</v>
+        <v>7.0843553490771954E-2</v>
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
-        <v>1.3100000000000003</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>0.39656051444532991</v>
+        <v>7.6929876238228126E-2</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
-        <v>1.3200000000000003</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>0.41118033320243297</v>
+        <v>8.3231209752196347E-2</v>
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
-        <v>1.3300000000000003</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>0.42445649053243717</v>
+        <v>8.973133658987105E-2</v>
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
-        <v>1.3400000000000003</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>0.43637539384532065</v>
+        <v>9.641243556416082E-2</v>
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
-        <v>1.3500000000000003</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>0.44695216127096254</v>
+        <v>0.10325519661854952</v>
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
-        <v>1.3600000000000003</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>0.4562276741678255</v>
+        <v>0.11023895553883063</v>
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
-        <v>1.3700000000000003</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>0.46426485100526288</v>
+        <v>0.11734184751806659</v>
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
-        <v>1.3800000000000003</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>0.47114438598562269</v>
+        <v>0.12454097821643233</v>
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
-        <v>1.3900000000000003</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>0.47696021108917142</v>
+        <v>0.13181261058906879</v>
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
-        <v>1.4000000000000004</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>0.48181493622808969</v>
+        <v>0.13913236540178756</v>
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
-        <v>1.4100000000000004</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>0.48581550032261223</v>
+        <v>0.14647543302575003</v>
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
-        <v>1.4200000000000004</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>0.48906922940547914</v>
+        <v>0.15381679380738991</v>
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
-        <v>1.4300000000000004</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>0.49168045056913828</v>
+        <v>0.16113144405783855</v>
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
-        <v>1.4400000000000004</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>0.49374775762398698</v>
+        <v>0.16839462450529405</v>
       </c>
       <c r="C65">
         <f t="shared" si="1"/>
-        <v>1.4500000000000004</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66">
         <f t="shared" si="0"/>
-        <v>0.49536197077070659</v>
+        <v>0.17558204791159163</v>
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
-        <v>1.4600000000000004</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67">
         <f t="shared" si="0"/>
-        <v>0.49660478299595257</v>
+        <v>0.18267012247688577</v>
       </c>
       <c r="C67">
         <f t="shared" si="1"/>
-        <v>1.4700000000000004</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68">
         <f t="shared" si="0"/>
-        <v>0.49754804397175195</v>
+        <v>0.18963616764856731</v>
       </c>
       <c r="C68">
         <f t="shared" si="1"/>
-        <v>1.4800000000000004</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69">
         <f t="shared" si="0"/>
-        <v>0.49825360046900036</v>
+        <v>0.19645861901529907</v>
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
-        <v>1.4900000000000004</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70">
         <f t="shared" si="0"/>
-        <v>0.4987735918534465</v>
+        <v>0.20311721910542085</v>
       </c>
       <c r="C70">
         <f t="shared" si="1"/>
-        <v>1.5000000000000004</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71">
         <f t="shared" si="0"/>
-        <v>0.49915109001197139</v>
+        <v>0.20959319111996269</v>
       </c>
       <c r="C71">
         <f t="shared" si="1"/>
-        <v>1.5100000000000005</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72">
         <f t="shared" si="0"/>
-        <v>0.49942097387364487</v>
+        <v>0.21586939291098117</v>
       </c>
       <c r="C72">
         <f t="shared" si="1"/>
-        <v>1.5200000000000005</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73">
         <f t="shared" si="0"/>
-        <v>0.49961093758286002</v>
+        <v>0.22193044886066229</v>
       </c>
       <c r="C73">
         <f t="shared" si="1"/>
-        <v>1.5300000000000005</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74">
         <f t="shared" si="0"/>
-        <v>0.49974254596131784</v>
+        <v>0.2277628577183255</v>
       </c>
       <c r="C74">
         <f t="shared" si="1"/>
-        <v>1.5400000000000005</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75">
         <f t="shared" si="0"/>
-        <v>0.49983226868604874</v>
+        <v>0.23335507490195029</v>
       </c>
       <c r="C75">
         <f t="shared" si="1"/>
-        <v>1.5500000000000005</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76">
         <f t="shared" si="0"/>
-        <v>0.49989244334063315</v>
+        <v>0.23869756825732752</v>
       </c>
       <c r="C76">
         <f t="shared" si="1"/>
-        <v>1.5600000000000005</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77">
         <f t="shared" si="0"/>
-        <v>0.49993213530833991</v>
+        <v>0.24378284677925793</v>
       </c>
       <c r="C77">
         <f t="shared" si="1"/>
-        <v>1.5700000000000005</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78">
         <f t="shared" si="0"/>
-        <v>0.49995787803925179</v>
+        <v>0.24860546232227976</v>
       </c>
       <c r="C78">
         <f t="shared" si="1"/>
-        <v>1.5800000000000005</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79">
         <f t="shared" si="0"/>
-        <v>0.49997428976150043</v>
+        <v>0.25316198484953234</v>
       </c>
       <c r="C79">
         <f t="shared" si="1"/>
-        <v>1.5900000000000005</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80">
         <f t="shared" si="0"/>
-        <v>0.49998457194554841</v>
+        <v>0.25745095227379722</v>
       </c>
       <c r="C80">
         <f t="shared" si="1"/>
-        <v>1.6000000000000005</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81">
         <f t="shared" si="0"/>
-        <v>0.49999090089962539</v>
+        <v>0.26147279642109311</v>
       </c>
       <c r="C81">
         <f t="shared" si="1"/>
-        <v>1.6100000000000005</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82">
         <f t="shared" si="0"/>
-        <v>0.4999947271831322</v>
+        <v>0.26522974708186364</v>
       </c>
       <c r="C82">
         <f t="shared" si="1"/>
-        <v>1.6200000000000006</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83">
         <f t="shared" si="0"/>
-        <v>0.49999699863673219</v>
+        <v>0.26872571649646854</v>
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
-        <v>1.6300000000000006</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84">
         <f t="shared" si="0"/>
-        <v>0.49999832235222452</v>
+        <v>0.27196616694071241</v>
       </c>
       <c r="C84">
         <f t="shared" si="1"/>
-        <v>1.6400000000000006</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85">
-        <f t="shared" ref="B85:B121" si="2">(1-EXP(-((C85-($B$15-0.5))/$B$13)^$B$14))*$B$12</f>
-        <v>0.49999907941465183</v>
+        <f t="shared" ref="B85:B121" si="2">(1-EXP(-((C85/$B$16-($B$15-0.5))/$B$13)^$B$14))*$B$12</f>
+        <v>0.27495796432585551</v>
       </c>
       <c r="C85">
         <f t="shared" si="1"/>
-        <v>1.6500000000000006</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86">
         <f t="shared" si="2"/>
-        <v>0.49999950422675427</v>
+        <v>0.27770922090054417</v>
       </c>
       <c r="C86">
-        <f t="shared" ref="C86:C121" si="3">C85+0.01</f>
-        <v>1.6600000000000006</v>
+        <f t="shared" ref="C86:C121" si="3">C85+0.25</f>
+        <v>16.5</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87">
         <f t="shared" si="2"/>
-        <v>0.49999973804145276</v>
+        <v>0.28022913023639223</v>
       </c>
       <c r="C87">
         <f t="shared" si="3"/>
-        <v>1.6700000000000006</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88">
         <f t="shared" si="2"/>
-        <v>0.49999986423518789</v>
+        <v>0.28252779769408043</v>
       </c>
       <c r="C88">
         <f t="shared" si="3"/>
-        <v>1.6800000000000006</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89">
         <f t="shared" si="2"/>
-        <v>0.49999993100434548</v>
+        <v>0.2846160695048362</v>
       </c>
       <c r="C89">
         <f t="shared" si="3"/>
-        <v>1.6900000000000006</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90">
         <f t="shared" si="2"/>
-        <v>0.49999996562752336</v>
+        <v>0.28650536346742178</v>
       </c>
       <c r="C90">
         <f t="shared" si="3"/>
-        <v>1.7000000000000006</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91">
         <f t="shared" si="2"/>
-        <v>0.49999998321856143</v>
+        <v>0.28820750405985879</v>
       </c>
       <c r="C91">
         <f t="shared" si="3"/>
-        <v>1.7100000000000006</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92">
         <f t="shared" si="2"/>
-        <v>0.49999999197303208</v>
+        <v>0.2897345645065002</v>
       </c>
       <c r="C92">
         <f t="shared" si="3"/>
-        <v>1.7200000000000006</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93">
         <f t="shared" si="2"/>
-        <v>0.49999999623943975</v>
+        <v>0.29109871803469367</v>
       </c>
       <c r="C93">
         <f t="shared" si="3"/>
-        <v>1.7300000000000006</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94">
         <f t="shared" si="2"/>
-        <v>0.49999999827492908</v>
+        <v>0.29231210021223275</v>
       </c>
       <c r="C94">
         <f t="shared" si="3"/>
-        <v>1.7400000000000007</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95">
         <f t="shared" si="2"/>
-        <v>0.49999999922537869</v>
+        <v>0.29338668388880529</v>
       </c>
       <c r="C95">
         <f t="shared" si="3"/>
-        <v>1.7500000000000007</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96">
         <f t="shared" si="2"/>
-        <v>0.49999999965961162</v>
+        <v>0.29433416788367545</v>
       </c>
       <c r="C96">
         <f t="shared" si="3"/>
-        <v>1.7600000000000007</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97">
         <f t="shared" si="2"/>
-        <v>0.49999999985366861</v>
+        <v>0.29516588017958978</v>
       </c>
       <c r="C97">
         <f t="shared" si="3"/>
-        <v>1.7700000000000007</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98">
         <f t="shared" si="2"/>
-        <v>0.49999999993847488</v>
+        <v>0.29589269601045221</v>
       </c>
       <c r="C98">
         <f t="shared" si="3"/>
-        <v>1.7800000000000007</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99">
         <f t="shared" si="2"/>
-        <v>0.49999999997470734</v>
+        <v>0.29652497087771895</v>
       </c>
       <c r="C99">
         <f t="shared" si="3"/>
-        <v>1.7900000000000007</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100">
         <f t="shared" si="2"/>
-        <v>0.49999999998983663</v>
+        <v>0.29707248820643462</v>
       </c>
       <c r="C100">
         <f t="shared" si="3"/>
-        <v>1.8000000000000007</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101">
         <f t="shared" si="2"/>
-        <v>0.49999999999600925</v>
+        <v>0.2975444210635308</v>
       </c>
       <c r="C101">
         <f t="shared" si="3"/>
-        <v>1.8100000000000007</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102">
         <f t="shared" si="2"/>
-        <v>0.49999999999846917</v>
+        <v>0.29794930711385315</v>
       </c>
       <c r="C102">
         <f t="shared" si="3"/>
-        <v>1.8200000000000007</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103">
         <f t="shared" si="2"/>
-        <v>0.49999999999942651</v>
+        <v>0.29829503578700706</v>
       </c>
       <c r="C103">
         <f t="shared" si="3"/>
-        <v>1.8300000000000007</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104">
         <f t="shared" si="2"/>
-        <v>0.49999999999979022</v>
+        <v>0.29858884647232875</v>
       </c>
       <c r="C104">
         <f t="shared" si="3"/>
-        <v>1.8400000000000007</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105">
         <f t="shared" si="2"/>
-        <v>0.49999999999992512</v>
+        <v>0.29883733645020727</v>
       </c>
       <c r="C105">
         <f t="shared" si="3"/>
-        <v>1.8500000000000008</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106">
         <f t="shared" si="2"/>
-        <v>0.49999999999997391</v>
+        <v>0.29904647720411548</v>
       </c>
       <c r="C106">
         <f t="shared" si="3"/>
-        <v>1.8600000000000008</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107">
         <f t="shared" si="2"/>
-        <v>0.49999999999999112</v>
+        <v>0.29922163773619626</v>
       </c>
       <c r="C107">
         <f t="shared" si="3"/>
-        <v>1.8700000000000008</v>
+        <v>21.75</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108">
         <f t="shared" si="2"/>
-        <v>0.49999999999999706</v>
+        <v>0.29936761352609076</v>
       </c>
       <c r="C108">
         <f t="shared" si="3"/>
-        <v>1.8800000000000008</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109">
         <f t="shared" si="2"/>
-        <v>0.49999999999999906</v>
+        <v>0.29948865982299966</v>
       </c>
       <c r="C109">
         <f t="shared" si="3"/>
-        <v>1.8900000000000008</v>
+        <v>22.25</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110">
         <f t="shared" si="2"/>
-        <v>0.49999999999999972</v>
+        <v>0.29958852803926317</v>
       </c>
       <c r="C110">
         <f t="shared" si="3"/>
-        <v>1.9000000000000008</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111">
         <f t="shared" si="2"/>
-        <v>0.49999999999999989</v>
+        <v>0.29967050411421003</v>
       </c>
       <c r="C111">
         <f t="shared" si="3"/>
-        <v>1.9100000000000008</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.29973744783379824</v>
       </c>
       <c r="C112">
         <f t="shared" si="3"/>
-        <v>1.9200000000000008</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.29979183221893801</v>
       </c>
       <c r="C113">
         <f t="shared" si="3"/>
-        <v>1.9300000000000008</v>
+        <v>23.25</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.29983578222801444</v>
       </c>
       <c r="C114">
         <f t="shared" si="3"/>
-        <v>1.9400000000000008</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.29987111215221296</v>
       </c>
       <c r="C115">
         <f t="shared" si="3"/>
-        <v>1.9500000000000008</v>
+        <v>23.75</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.29989936121162925</v>
       </c>
       <c r="C116">
         <f t="shared" si="3"/>
-        <v>1.9600000000000009</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.29992182698238479</v>
       </c>
       <c r="C117">
         <f t="shared" si="3"/>
-        <v>1.9700000000000009</v>
+        <v>24.25</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.29993959639739087</v>
       </c>
       <c r="C118">
         <f t="shared" si="3"/>
-        <v>1.9800000000000009</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.29995357416407437</v>
       </c>
       <c r="C119">
         <f t="shared" si="3"/>
-        <v>1.9900000000000009</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.2999645085300941</v>
       </c>
       <c r="C120">
         <f t="shared" si="3"/>
-        <v>2.0000000000000009</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.29997301440226942</v>
       </c>
       <c r="C121">
         <f t="shared" si="3"/>
-        <v>2.0100000000000007</v>
+        <v>25.25</v>
       </c>
     </row>
   </sheetData>
@@ -5700,7 +6014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2D56DC-B88D-4D01-A53F-63CA8F6465A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94EE715-837F-42FF-9ABE-26F6D8ECC425}">
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5711,7 +6025,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1">
         <v>0.6</v>
@@ -5719,7 +6033,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>0.6</v>
@@ -5727,7 +6041,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>0.6</v>
@@ -5735,7 +6049,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>0.6</v>
@@ -5743,7 +6057,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>0.6</v>
@@ -5751,7 +6065,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>0.6</v>
@@ -5759,7 +6073,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>0.6</v>
@@ -5767,7 +6081,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>0.6</v>
@@ -5775,7 +6089,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>0.6</v>
@@ -5783,7 +6097,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <v>0.6</v>
@@ -5791,7 +6105,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B11">
         <v>0.6</v>
@@ -5799,7 +6113,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>0.6</v>
@@ -5807,7 +6121,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <v>0.6</v>
@@ -5815,7 +6129,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>0.6</v>
@@ -5823,7 +6137,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <v>0.6</v>
@@ -5831,7 +6145,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>0.6</v>
@@ -5839,7 +6153,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>0.6</v>
@@ -5847,7 +6161,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B18">
         <v>0.6</v>
@@ -5855,7 +6169,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -5863,7 +6177,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B20">
         <v>0.6</v>
@@ -5871,7 +6185,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B21">
         <v>0.6</v>
@@ -5879,7 +6193,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B22">
         <v>0.6</v>
@@ -5887,7 +6201,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B23">
         <v>0.6</v>
@@ -5895,7 +6209,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="B24">
         <v>0.6</v>
@@ -5903,7 +6217,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B25">
         <v>0.6</v>
@@ -5911,7 +6225,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B26">
         <v>0.6</v>
@@ -5919,7 +6233,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B27">
         <v>0.6</v>
@@ -5927,7 +6241,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="B28">
         <v>0.6</v>
@@ -5935,7 +6249,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B29">
         <v>0.6</v>
@@ -5943,7 +6257,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="B30">
         <v>0.6</v>
@@ -5951,7 +6265,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B31">
         <v>0.6</v>
@@ -5959,7 +6273,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B32">
         <v>0.6</v>
@@ -5967,7 +6281,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="B33">
         <v>0.6</v>
@@ -5975,7 +6289,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="B34">
         <v>0.6</v>
@@ -5983,7 +6297,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="B35">
         <v>0.6</v>
@@ -5991,7 +6305,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="B36">
         <v>0.6</v>
@@ -5999,7 +6313,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="B37">
         <v>0.6</v>
@@ -6007,7 +6321,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="B38">
         <v>0.6</v>
@@ -6015,7 +6329,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="B39">
         <v>0.6</v>
@@ -6023,7 +6337,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="B40">
         <v>0.6</v>
@@ -6031,7 +6345,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="B41">
         <v>0.6</v>
@@ -6039,7 +6353,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="B42">
         <v>0.6</v>
@@ -6047,7 +6361,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="B43">
         <v>0.6</v>
@@ -6055,7 +6369,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="B44">
         <v>0.6</v>
@@ -6063,7 +6377,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -6071,7 +6385,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="B46">
         <v>0.6</v>
@@ -6079,7 +6393,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="B47">
         <v>0.6</v>
@@ -6087,7 +6401,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="B48">
         <v>0.6</v>
@@ -6095,7 +6409,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="B49">
         <v>0.6</v>
@@ -6103,7 +6417,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="B50">
         <v>0.6</v>
@@ -6119,10 +6433,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:CE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:O1"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6131,110 +6445,667 @@
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1">
+        <f>(1-EXP(-((B2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
         <v>0</v>
       </c>
       <c r="C1">
-        <f>(1-EXP(-((C2-1)/About!$B$13)^About!$B$14))*About!$B$12</f>
-        <v>2.9962456884000122E-3</v>
+        <f>(1-EXP(-((C2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>2.7126613468153591E-6</v>
       </c>
       <c r="D1">
-        <f>(1-EXP(-((D2-1)/About!$B$13)^About!$B$14))*About!$B$12</f>
-        <v>2.3473206571269223E-2</v>
+        <f>(1-EXP(-((D2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>2.1700603990693067E-5</v>
       </c>
       <c r="E1">
-        <f>(1-EXP(-((E2-1)/About!$B$13)^About!$B$14))*About!$B$12</f>
-        <v>7.4900141956719624E-2</v>
+        <f>(1-EXP(-((E2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>7.3233247530835044E-5</v>
       </c>
       <c r="F1">
-        <f>(1-EXP(-((F2-1)/About!$B$13)^About!$B$14))*About!$B$12</f>
-        <v>0.15966347062760222</v>
+        <f>(1-EXP(-((F2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>1.7356088610352981E-4</v>
       </c>
       <c r="G1">
-        <f>(1-EXP(-((G2-1)/About!$B$13)^About!$B$14))*About!$B$12</f>
-        <v>0.26412705355846133</v>
+        <f>(1-EXP(-((G2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>3.3889264340773994E-4</v>
       </c>
       <c r="H1">
-        <f>(1-EXP(-((H2-1)/About!$B$13)^About!$B$14))*About!$B$12</f>
-        <v>0.36349842917090391</v>
+        <f>(1-EXP(-((H2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>5.853656677573426E-4</v>
       </c>
       <c r="I1">
-        <f>(1-EXP(-((I2-1)/About!$B$13)^About!$B$14))*About!$B$12</f>
-        <v>0.43637539384532031</v>
+        <f>(1-EXP(-((I2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>9.2900565297051587E-4</v>
       </c>
       <c r="J1">
-        <f>(1-EXP(-((J2-1)/About!$B$13)^About!$B$14))*About!$B$12</f>
-        <v>0.47696021108917119</v>
+        <f>(1-EXP(-((J2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>1.3856788240271701E-3</v>
       </c>
       <c r="K1">
-        <f>(1-EXP(-((K2-1)/About!$B$13)^About!$B$14))*About!$B$12</f>
-        <v>0.49374775762398693</v>
+        <f>(1-EXP(-((K2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>1.9710355922915369E-3</v>
       </c>
       <c r="L1">
-        <f>(1-EXP(-((L2-1)/About!$B$13)^About!$B$14))*About!$B$12</f>
-        <v>0.4987735918534465</v>
+        <f>(1-EXP(-((L2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>2.700446163192427E-3</v>
       </c>
       <c r="M1">
-        <f>(1-EXP(-((M2-1)/About!$B$13)^About!$B$14))*About!$B$12</f>
-        <v>0.49983226868604874</v>
+        <f>(1-EXP(-((M2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>3.5889284688606191E-3</v>
       </c>
       <c r="N1">
-        <f>(1-EXP(-((N2-1)/About!$B$13)^About!$B$14))*About!$B$12</f>
-        <v>0.49998457194554841</v>
+        <f>(1-EXP(-((N2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>4.651068898377464E-3</v>
       </c>
       <c r="O1">
-        <f>(1-EXP(-((O2-1)/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <f>(1-EXP(-((O2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>5.9009364077483913E-3</v>
+      </c>
+      <c r="P1">
+        <f>(1-EXP(-((P2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>7.3519907089534368E-3</v>
+      </c>
+      <c r="Q1">
+        <f>(1-EXP(-((Q2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>9.0169853605967954E-3</v>
+      </c>
+      <c r="R1">
+        <f>(1-EXP(-((R2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>1.0907866709614121E-2</v>
+      </c>
+      <c r="S1">
+        <f>(1-EXP(-((S2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>1.303566976172048E-2</v>
+      </c>
+      <c r="T1">
+        <f>(1-EXP(-((T2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>1.5410412185000931E-2</v>
+      </c>
+      <c r="U1">
+        <f>(1-EXP(-((U2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>1.8040987773186055E-2</v>
+      </c>
+      <c r="V1">
+        <f>(1-EXP(-((V2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>2.0935060809395944E-2</v>
+      </c>
+      <c r="W1">
+        <f>(1-EXP(-((W2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>2.4098962873959361E-2</v>
+      </c>
+      <c r="X1">
+        <f>(1-EXP(-((X2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>2.7537593727665208E-2</v>
+      </c>
+      <c r="Y1">
+        <f>(1-EXP(-((Y2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>3.1254327970773217E-2</v>
+      </c>
+      <c r="Z1">
+        <f>(1-EXP(-((Z2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>3.5250929224621363E-2</v>
+      </c>
+      <c r="AA1">
+        <f>(1-EXP(-((AA2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>3.9527473603179493E-2</v>
+      </c>
+      <c r="AB1">
+        <f>(1-EXP(-((AB2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>4.4082284233117663E-2</v>
+      </c>
+      <c r="AC1">
+        <f>(1-EXP(-((AC2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>4.8911878539958133E-2</v>
+      </c>
+      <c r="AD1">
+        <f>(1-EXP(-((AD2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>5.4010929942227434E-2</v>
+      </c>
+      <c r="AE1">
+        <f>(1-EXP(-((AE2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>5.9372245483401073E-2</v>
+      </c>
+      <c r="AF1">
+        <f>(1-EXP(-((AF2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>6.4986760781754541E-2</v>
+      </c>
+      <c r="AG1">
+        <f>(1-EXP(-((AG2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>7.0843553490771954E-2</v>
+      </c>
+      <c r="AH1">
+        <f>(1-EXP(-((AH2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>7.6929876238228126E-2</v>
+      </c>
+      <c r="AI1">
+        <f>(1-EXP(-((AI2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>8.3231209752196347E-2</v>
+      </c>
+      <c r="AJ1">
+        <f>(1-EXP(-((AJ2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>8.973133658987105E-2</v>
+      </c>
+      <c r="AK1">
+        <f>(1-EXP(-((AK2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>9.641243556416082E-2</v>
+      </c>
+      <c r="AL1">
+        <f>(1-EXP(-((AL2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.10325519661854952</v>
+      </c>
+      <c r="AM1">
+        <f>(1-EXP(-((AM2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.11023895553883063</v>
+      </c>
+      <c r="AN1">
+        <f>(1-EXP(-((AN2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.11734184751806659</v>
+      </c>
+      <c r="AO1">
+        <f>(1-EXP(-((AO2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.12454097821643233</v>
+      </c>
+      <c r="AP1">
+        <f>(1-EXP(-((AP2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.13181261058906879</v>
+      </c>
+      <c r="AQ1">
+        <f>(1-EXP(-((AQ2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.13913236540178756</v>
+      </c>
+      <c r="AR1">
+        <f>(1-EXP(-((AR2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.14647543302575003</v>
+      </c>
+      <c r="AS1">
+        <f>(1-EXP(-((AS2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.15381679380738991</v>
+      </c>
+      <c r="AT1">
+        <f>(1-EXP(-((AT2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.16113144405783855</v>
+      </c>
+      <c r="AU1">
+        <f>(1-EXP(-((AU2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.16839462450529405</v>
+      </c>
+      <c r="AV1">
+        <f>(1-EXP(-((AV2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.17558204791159163</v>
+      </c>
+      <c r="AW1">
+        <f>(1-EXP(-((AW2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.18267012247688577</v>
+      </c>
+      <c r="AX1">
+        <f>(1-EXP(-((AX2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.18963616764856731</v>
+      </c>
+      <c r="AY1">
+        <f>(1-EXP(-((AY2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.19645861901529907</v>
+      </c>
+      <c r="AZ1">
+        <f>(1-EXP(-((AZ2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.20311721910542085</v>
+      </c>
+      <c r="BA1">
+        <f>(1-EXP(-((BA2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.20959319111996269</v>
+      </c>
+      <c r="BB1">
+        <f>(1-EXP(-((BB2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.21586939291098117</v>
+      </c>
+      <c r="BC1">
+        <f>(1-EXP(-((BC2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.22193044886066229</v>
+      </c>
+      <c r="BD1">
+        <f>(1-EXP(-((BD2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.2277628577183255</v>
+      </c>
+      <c r="BE1">
+        <f>(1-EXP(-((BE2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.23335507490195029</v>
+      </c>
+      <c r="BF1">
+        <f>(1-EXP(-((BF2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.23869756825732752</v>
+      </c>
+      <c r="BG1">
+        <f>(1-EXP(-((BG2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.24378284677925793</v>
+      </c>
+      <c r="BH1">
+        <f>(1-EXP(-((BH2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.24860546232227976</v>
+      </c>
+      <c r="BI1">
+        <f>(1-EXP(-((BI2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.25316198484953234</v>
+      </c>
+      <c r="BJ1">
+        <f>(1-EXP(-((BJ2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.25745095227379722</v>
+      </c>
+      <c r="BK1">
+        <f>(1-EXP(-((BK2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.26147279642109311</v>
+      </c>
+      <c r="BL1">
+        <f>(1-EXP(-((BL2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.26522974708186364</v>
+      </c>
+      <c r="BM1">
+        <f>(1-EXP(-((BM2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.26872571649646854</v>
+      </c>
+      <c r="BN1">
+        <f>(1-EXP(-((BN2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.27196616694071241</v>
+      </c>
+      <c r="BO1">
+        <f>(1-EXP(-((BO2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.27495796432585551</v>
+      </c>
+      <c r="BP1">
+        <f>(1-EXP(-((BP2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.27770922090054417</v>
+      </c>
+      <c r="BQ1">
+        <f>(1-EXP(-((BQ2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.28022913023639223</v>
+      </c>
+      <c r="BR1">
+        <f>(1-EXP(-((BR2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.28252779769408043</v>
+      </c>
+      <c r="BS1">
+        <f>(1-EXP(-((BS2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.2846160695048362</v>
+      </c>
+      <c r="BT1">
+        <f>(1-EXP(-((BT2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.28650536346742178</v>
+      </c>
+      <c r="BU1">
+        <f>(1-EXP(-((BU2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.28820750405985879</v>
+      </c>
+      <c r="BV1">
+        <f>(1-EXP(-((BV2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.2897345645065002</v>
+      </c>
+      <c r="BW1">
+        <f>(1-EXP(-((BW2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.29109871803469367</v>
+      </c>
+      <c r="BX1">
+        <f>(1-EXP(-((BX2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.29231210021223275</v>
+      </c>
+      <c r="BY1">
+        <f>(1-EXP(-((BY2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.29338668388880529</v>
+      </c>
+      <c r="BZ1">
+        <f>(1-EXP(-((BZ2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.29433416788367545</v>
+      </c>
+      <c r="CA1">
+        <f>(1-EXP(-((CA2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.29516588017958978</v>
+      </c>
+      <c r="CB1">
+        <f>(1-EXP(-((CB2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.29589269601045221</v>
+      </c>
+      <c r="CC1">
+        <f>(1-EXP(-((CC2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.29652497087771895</v>
+      </c>
+      <c r="CD1">
+        <f>(1-EXP(-((CD2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.29707248820643462</v>
+      </c>
+      <c r="CE1">
+        <f>(1-EXP(-((CE2/About!$B$16-(About!$B$15-0.5))/About!$B$13)^About!$B$14))*About!$B$12</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>B2+0.25</f>
+        <v>0.25</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:AI2" si="0">C2+0.25</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1.05</v>
-      </c>
-      <c r="D2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F2">
-        <v>1.2</v>
-      </c>
-      <c r="G2">
-        <v>1.25</v>
-      </c>
-      <c r="H2">
-        <v>1.3</v>
-      </c>
-      <c r="I2">
-        <v>1.35</v>
-      </c>
-      <c r="J2">
-        <v>1.4</v>
-      </c>
-      <c r="K2">
-        <v>1.45</v>
-      </c>
-      <c r="L2">
-        <v>1.5</v>
-      </c>
-      <c r="M2">
-        <v>1.55</v>
-      </c>
-      <c r="N2">
-        <v>1.6</v>
-      </c>
-      <c r="O2">
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>4.75</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>5.25</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>6.75</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>7.25</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="0"/>
+        <v>7.75</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="0"/>
+        <v>8.25</v>
+      </c>
+      <c r="AJ2">
+        <f>AI2+0.25</f>
+        <v>8.5</v>
+      </c>
+      <c r="AK2">
+        <f t="shared" ref="AK2:AO2" si="1">AJ2+0.25</f>
+        <v>8.75</v>
+      </c>
+      <c r="AL2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AM2">
+        <f t="shared" si="1"/>
+        <v>9.25</v>
+      </c>
+      <c r="AN2">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+      <c r="AO2">
+        <f t="shared" si="1"/>
+        <v>9.75</v>
+      </c>
+      <c r="AP2">
+        <f>AO2+0.25</f>
+        <v>10</v>
+      </c>
+      <c r="AQ2">
+        <f t="shared" ref="AQ2:BJ2" si="2">AP2+0.25</f>
+        <v>10.25</v>
+      </c>
+      <c r="AR2">
+        <f t="shared" si="2"/>
+        <v>10.5</v>
+      </c>
+      <c r="AS2">
+        <f t="shared" si="2"/>
+        <v>10.75</v>
+      </c>
+      <c r="AT2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="AU2">
+        <f t="shared" si="2"/>
+        <v>11.25</v>
+      </c>
+      <c r="AV2">
+        <f t="shared" si="2"/>
+        <v>11.5</v>
+      </c>
+      <c r="AW2">
+        <f t="shared" si="2"/>
+        <v>11.75</v>
+      </c>
+      <c r="AX2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="AY2">
+        <f t="shared" si="2"/>
+        <v>12.25</v>
+      </c>
+      <c r="AZ2">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+      <c r="BA2">
+        <f t="shared" si="2"/>
+        <v>12.75</v>
+      </c>
+      <c r="BB2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="BC2">
+        <f t="shared" si="2"/>
+        <v>13.25</v>
+      </c>
+      <c r="BD2">
+        <f t="shared" si="2"/>
+        <v>13.5</v>
+      </c>
+      <c r="BE2">
+        <f t="shared" si="2"/>
+        <v>13.75</v>
+      </c>
+      <c r="BF2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="BG2">
+        <f t="shared" si="2"/>
+        <v>14.25</v>
+      </c>
+      <c r="BH2">
+        <f t="shared" si="2"/>
+        <v>14.5</v>
+      </c>
+      <c r="BI2">
+        <f t="shared" si="2"/>
+        <v>14.75</v>
+      </c>
+      <c r="BJ2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="BK2">
+        <f t="shared" ref="BK2" si="3">BJ2+0.25</f>
+        <v>15.25</v>
+      </c>
+      <c r="BL2">
+        <f t="shared" ref="BL2" si="4">BK2+0.25</f>
+        <v>15.5</v>
+      </c>
+      <c r="BM2">
+        <f t="shared" ref="BM2" si="5">BL2+0.25</f>
+        <v>15.75</v>
+      </c>
+      <c r="BN2">
+        <f t="shared" ref="BN2" si="6">BM2+0.25</f>
+        <v>16</v>
+      </c>
+      <c r="BO2">
+        <f t="shared" ref="BO2" si="7">BN2+0.25</f>
+        <v>16.25</v>
+      </c>
+      <c r="BP2">
+        <f t="shared" ref="BP2" si="8">BO2+0.25</f>
+        <v>16.5</v>
+      </c>
+      <c r="BQ2">
+        <f t="shared" ref="BQ2" si="9">BP2+0.25</f>
+        <v>16.75</v>
+      </c>
+      <c r="BR2">
+        <f t="shared" ref="BR2" si="10">BQ2+0.25</f>
+        <v>17</v>
+      </c>
+      <c r="BS2">
+        <f t="shared" ref="BS2" si="11">BR2+0.25</f>
+        <v>17.25</v>
+      </c>
+      <c r="BT2">
+        <f t="shared" ref="BT2" si="12">BS2+0.25</f>
+        <v>17.5</v>
+      </c>
+      <c r="BU2">
+        <f t="shared" ref="BU2" si="13">BT2+0.25</f>
+        <v>17.75</v>
+      </c>
+      <c r="BV2">
+        <f t="shared" ref="BV2" si="14">BU2+0.25</f>
+        <v>18</v>
+      </c>
+      <c r="BW2">
+        <f t="shared" ref="BW2" si="15">BV2+0.25</f>
+        <v>18.25</v>
+      </c>
+      <c r="BX2">
+        <f t="shared" ref="BX2" si="16">BW2+0.25</f>
+        <v>18.5</v>
+      </c>
+      <c r="BY2">
+        <f t="shared" ref="BY2" si="17">BX2+0.25</f>
+        <v>18.75</v>
+      </c>
+      <c r="BZ2">
+        <f t="shared" ref="BZ2" si="18">BY2+0.25</f>
+        <v>19</v>
+      </c>
+      <c r="CA2">
+        <f t="shared" ref="CA2" si="19">BZ2+0.25</f>
+        <v>19.25</v>
+      </c>
+      <c r="CB2">
+        <f t="shared" ref="CB2" si="20">CA2+0.25</f>
+        <v>19.5</v>
+      </c>
+      <c r="CC2">
+        <f t="shared" ref="CC2" si="21">CB2+0.25</f>
+        <v>19.75</v>
+      </c>
+      <c r="CD2">
+        <f t="shared" ref="CD2" si="22">CC2+0.25</f>
+        <v>20</v>
+      </c>
+      <c r="CE2">
         <v>1000</v>
       </c>
     </row>
@@ -6262,15 +7133,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
-        <f>INDEX('state specific NEC'!B:B,MATCH(About!B2,'state specific NEC'!A:A,0))</f>
+        <f>SUMIFS('state specific NEC'!B:B,'state specific NEC'!A:A,About!B2)</f>
         <v>0.6</v>
       </c>
     </row>
@@ -6297,7 +7168,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1">
         <v>2021</v>
@@ -6392,7 +7263,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6487,7 +7358,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6582,7 +7453,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6677,7 +7548,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6772,7 +7643,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6867,7 +7738,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6962,7 +7833,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -7057,7 +7928,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -7152,7 +8023,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -7247,7 +8118,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -7342,7 +8213,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -7437,7 +8308,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -7532,7 +8403,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -7627,7 +8498,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -7722,7 +8593,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -7817,7 +8688,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -7912,7 +8783,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -8007,7 +8878,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -8102,7 +8973,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -8197,7 +9068,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -8292,7 +9163,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -8387,7 +9258,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -8482,7 +9353,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -8577,7 +9448,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -8693,7 +9564,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1">
         <v>2021</v>
@@ -8788,7 +9659,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -8883,7 +9754,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -8978,7 +9849,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -9073,7 +9944,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -9168,7 +10039,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -9263,7 +10134,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0.05</v>
@@ -9358,7 +10229,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>0.05</v>
@@ -9453,7 +10324,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -9548,7 +10419,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -9643,7 +10514,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -9738,7 +10609,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -9833,7 +10704,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -9928,7 +10799,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -10023,7 +10894,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -10118,7 +10989,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -10213,7 +11084,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -10308,7 +11179,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -10403,7 +11274,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -10498,7 +11369,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -10593,7 +11464,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -10688,7 +11559,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -10783,7 +11654,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -10878,7 +11749,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -10973,7 +11844,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>0</v>

--- a/InputData/elec/CSC/Capacity Supply Curve.xlsx
+++ b/InputData/elec/CSC/Capacity Supply Curve.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\OR\elec\CSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\AL\elec\CSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3487A259-C423-4592-92FA-25B092BE9A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58A86371-1BB4-422C-B830-AB57620B10CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="915" yWindow="885" windowWidth="19965" windowHeight="7170" activeTab="3" xr2:uid="{F87DB1D1-DC21-4EA7-B1DF-998EE56837F8}"/>
   </bookViews>
@@ -4591,7 +4591,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="C1" s="3">
         <v>45532</v>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="B2" t="str">
         <f>LOOKUP(B1,F1:G50,G1:G50)</f>
-        <v>OR</v>
+        <v>AL</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>94</v>
